--- a/outcome/fig2.xlsx
+++ b/outcome/fig2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t xml:space="preserve">location_name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
   </si>
   <si>
     <t xml:space="preserve">South-East Asia</t>
@@ -2932,13 +2935,13 @@
         <v>1990</v>
       </c>
       <c r="C130" t="n">
-        <v>1.51666666666667</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E130" t="n">
-        <v>3.36666666666667</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="131">
@@ -2949,13 +2952,13 @@
         <v>1991</v>
       </c>
       <c r="C131" t="n">
-        <v>1.51666666666667</v>
+        <v>1.45</v>
       </c>
       <c r="D131" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E131" t="n">
-        <v>3.375</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="132">
@@ -2966,13 +2969,13 @@
         <v>1992</v>
       </c>
       <c r="C132" t="n">
-        <v>1.51666666666667</v>
+        <v>1.45</v>
       </c>
       <c r="D132" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E132" t="n">
-        <v>3.39166666666667</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="133">
@@ -2983,13 +2986,13 @@
         <v>1993</v>
       </c>
       <c r="C133" t="n">
-        <v>1.51666666666667</v>
+        <v>1.45</v>
       </c>
       <c r="D133" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E133" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="134">
@@ -3000,13 +3003,13 @@
         <v>1994</v>
       </c>
       <c r="C134" t="n">
-        <v>1.50833333333333</v>
+        <v>1.45</v>
       </c>
       <c r="D134" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E134" t="n">
-        <v>3.4</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="135">
@@ -3017,13 +3020,13 @@
         <v>1995</v>
       </c>
       <c r="C135" t="n">
-        <v>1.50833333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D135" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E135" t="n">
-        <v>3.4</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="136">
@@ -3034,13 +3037,13 @@
         <v>1996</v>
       </c>
       <c r="C136" t="n">
-        <v>1.50833333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D136" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E136" t="n">
-        <v>3.40833333333333</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="137">
@@ -3051,13 +3054,13 @@
         <v>1997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.5</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D137" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E137" t="n">
-        <v>3.4</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="138">
@@ -3068,13 +3071,13 @@
         <v>1998</v>
       </c>
       <c r="C138" t="n">
-        <v>1.51666666666667</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D138" t="n">
-        <v>0.583333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E138" t="n">
-        <v>3.43333333333333</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="139">
@@ -3085,13 +3088,13 @@
         <v>1999</v>
       </c>
       <c r="C139" t="n">
-        <v>1.50833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D139" t="n">
-        <v>0.575</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E139" t="n">
-        <v>3.425</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="140">
@@ -3102,13 +3105,13 @@
         <v>2000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.50833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D140" t="n">
-        <v>0.575</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E140" t="n">
-        <v>3.44166666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="141">
@@ -3119,13 +3122,13 @@
         <v>2001</v>
       </c>
       <c r="C141" t="n">
-        <v>1.50833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D141" t="n">
         <v>0.566666666666667</v>
       </c>
       <c r="E141" t="n">
-        <v>3.46666666666667</v>
+        <v>3.21666666666667</v>
       </c>
     </row>
     <row r="142">
@@ -3136,13 +3139,13 @@
         <v>2002</v>
       </c>
       <c r="C142" t="n">
-        <v>1.475</v>
+        <v>1.425</v>
       </c>
       <c r="D142" t="n">
         <v>0.558333333333333</v>
       </c>
       <c r="E142" t="n">
-        <v>3.425</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="143">
@@ -3153,13 +3156,13 @@
         <v>2003</v>
       </c>
       <c r="C143" t="n">
-        <v>1.46666666666667</v>
+        <v>1.425</v>
       </c>
       <c r="D143" t="n">
-        <v>0.55</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E143" t="n">
-        <v>3.40833333333333</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="144">
@@ -3170,13 +3173,13 @@
         <v>2004</v>
       </c>
       <c r="C144" t="n">
-        <v>1.46666666666667</v>
+        <v>1.425</v>
       </c>
       <c r="D144" t="n">
-        <v>0.558333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E144" t="n">
-        <v>3.425</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="145">
@@ -3187,13 +3190,13 @@
         <v>2005</v>
       </c>
       <c r="C145" t="n">
-        <v>1.475</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D145" t="n">
-        <v>0.558333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="E145" t="n">
-        <v>3.46666666666667</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="146">
@@ -3204,13 +3207,13 @@
         <v>2006</v>
       </c>
       <c r="C146" t="n">
-        <v>1.475</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D146" t="n">
-        <v>0.558333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="E146" t="n">
-        <v>3.45833333333333</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="147">
@@ -3221,13 +3224,13 @@
         <v>2007</v>
       </c>
       <c r="C147" t="n">
-        <v>1.45833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>0.558333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E147" t="n">
-        <v>3.43333333333333</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="148">
@@ -3238,13 +3241,13 @@
         <v>2008</v>
       </c>
       <c r="C148" t="n">
-        <v>1.45</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D148" t="n">
-        <v>0.55</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E148" t="n">
-        <v>3.425</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="149">
@@ -3258,10 +3261,10 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D149" t="n">
-        <v>0.55</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E149" t="n">
-        <v>3.4</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="150">
@@ -3275,10 +3278,10 @@
         <v>1.425</v>
       </c>
       <c r="D150" t="n">
-        <v>0.55</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E150" t="n">
-        <v>3.4</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="151">
@@ -3292,10 +3295,10 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D151" t="n">
-        <v>0.55</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E151" t="n">
-        <v>3.425</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="152">
@@ -3309,10 +3312,10 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>0.558333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E152" t="n">
-        <v>3.45</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="153">
@@ -3326,10 +3329,10 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D153" t="n">
-        <v>0.558333333333333</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E153" t="n">
-        <v>3.425</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="154">
@@ -3340,13 +3343,13 @@
         <v>2014</v>
       </c>
       <c r="C154" t="n">
-        <v>1.41666666666667</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D154" t="n">
-        <v>0.558333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E154" t="n">
-        <v>3.40833333333333</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="155">
@@ -3357,13 +3360,13 @@
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>1.40833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D155" t="n">
-        <v>0.558333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E155" t="n">
-        <v>3.43333333333333</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="156">
@@ -3374,13 +3377,13 @@
         <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>1.40833333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="E156" t="n">
-        <v>3.45</v>
+        <v>3.175</v>
       </c>
     </row>
     <row r="157">
@@ -3391,13 +3394,13 @@
         <v>2017</v>
       </c>
       <c r="C157" t="n">
-        <v>1.39166666666667</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D157" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="E157" t="n">
-        <v>3.45833333333333</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="158">
@@ -3408,13 +3411,13 @@
         <v>2018</v>
       </c>
       <c r="C158" t="n">
-        <v>1.4</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D158" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="E158" t="n">
-        <v>3.45</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="159">
@@ -3425,13 +3428,13 @@
         <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>1.40833333333333</v>
+        <v>1.44166666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>0.558333333333333</v>
+        <v>0.608333333333333</v>
       </c>
       <c r="E159" t="n">
-        <v>3.41666666666667</v>
+        <v>3.19166666666667</v>
       </c>
     </row>
     <row r="160">
@@ -3442,13 +3445,13 @@
         <v>2020</v>
       </c>
       <c r="C160" t="n">
-        <v>1.61666666666667</v>
+        <v>1.48333333333333</v>
       </c>
       <c r="D160" t="n">
-        <v>0.675</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="E160" t="n">
-        <v>3.80833333333333</v>
+        <v>3.20833333333333</v>
       </c>
     </row>
     <row r="161">
@@ -3459,13 +3462,13 @@
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>1.55833333333333</v>
+        <v>1.48333333333333</v>
       </c>
       <c r="D161" t="n">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="E161" t="n">
-        <v>3.75</v>
+        <v>3.18333333333333</v>
       </c>
     </row>
     <row r="162">
@@ -3476,13 +3479,13 @@
         <v>1990</v>
       </c>
       <c r="C162" t="n">
-        <v>1.55</v>
+        <v>1.51666666666667</v>
       </c>
       <c r="D162" t="n">
-        <v>0.641666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E162" t="n">
-        <v>3.38333333333333</v>
+        <v>3.36666666666667</v>
       </c>
     </row>
     <row r="163">
@@ -3493,13 +3496,13 @@
         <v>1991</v>
       </c>
       <c r="C163" t="n">
-        <v>1.575</v>
+        <v>1.51666666666667</v>
       </c>
       <c r="D163" t="n">
-        <v>0.65</v>
+        <v>0.575</v>
       </c>
       <c r="E163" t="n">
-        <v>3.41666666666667</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="164">
@@ -3510,13 +3513,13 @@
         <v>1992</v>
       </c>
       <c r="C164" t="n">
-        <v>1.6</v>
+        <v>1.51666666666667</v>
       </c>
       <c r="D164" t="n">
-        <v>0.658333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="E164" t="n">
-        <v>3.46666666666667</v>
+        <v>3.39166666666667</v>
       </c>
     </row>
     <row r="165">
@@ -3527,13 +3530,13 @@
         <v>1993</v>
       </c>
       <c r="C165" t="n">
-        <v>1.625</v>
+        <v>1.51666666666667</v>
       </c>
       <c r="D165" t="n">
-        <v>0.666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E165" t="n">
-        <v>3.525</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="166">
@@ -3544,13 +3547,13 @@
         <v>1994</v>
       </c>
       <c r="C166" t="n">
-        <v>1.63333333333333</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D166" t="n">
-        <v>0.658333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="E166" t="n">
-        <v>3.56666666666667</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="167">
@@ -3561,13 +3564,13 @@
         <v>1995</v>
       </c>
       <c r="C167" t="n">
-        <v>1.63333333333333</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D167" t="n">
-        <v>0.658333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="E167" t="n">
-        <v>3.59166666666667</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="168">
@@ -3578,13 +3581,13 @@
         <v>1996</v>
       </c>
       <c r="C168" t="n">
-        <v>1.64166666666667</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D168" t="n">
-        <v>0.666666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E168" t="n">
-        <v>3.625</v>
+        <v>3.40833333333333</v>
       </c>
     </row>
     <row r="169">
@@ -3595,13 +3598,13 @@
         <v>1997</v>
       </c>
       <c r="C169" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="D169" t="n">
-        <v>0.658333333333333</v>
+        <v>0.575</v>
       </c>
       <c r="E169" t="n">
-        <v>3.64166666666667</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="170">
@@ -3612,13 +3615,13 @@
         <v>1998</v>
       </c>
       <c r="C170" t="n">
-        <v>1.65</v>
+        <v>1.51666666666667</v>
       </c>
       <c r="D170" t="n">
-        <v>0.658333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E170" t="n">
-        <v>3.65</v>
+        <v>3.43333333333333</v>
       </c>
     </row>
     <row r="171">
@@ -3629,13 +3632,13 @@
         <v>1999</v>
       </c>
       <c r="C171" t="n">
-        <v>1.64166666666667</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D171" t="n">
-        <v>0.65</v>
+        <v>0.575</v>
       </c>
       <c r="E171" t="n">
-        <v>3.64166666666667</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="172">
@@ -3646,13 +3649,13 @@
         <v>2000</v>
       </c>
       <c r="C172" t="n">
-        <v>1.61666666666667</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D172" t="n">
-        <v>0.641666666666667</v>
+        <v>0.575</v>
       </c>
       <c r="E172" t="n">
-        <v>3.61666666666667</v>
+        <v>3.44166666666667</v>
       </c>
     </row>
     <row r="173">
@@ -3663,13 +3666,13 @@
         <v>2001</v>
       </c>
       <c r="C173" t="n">
-        <v>1.6</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D173" t="n">
-        <v>0.633333333333333</v>
+        <v>0.566666666666667</v>
       </c>
       <c r="E173" t="n">
-        <v>3.6</v>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="174">
@@ -3680,13 +3683,13 @@
         <v>2002</v>
       </c>
       <c r="C174" t="n">
-        <v>1.575</v>
+        <v>1.475</v>
       </c>
       <c r="D174" t="n">
-        <v>0.616666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E174" t="n">
-        <v>3.56666666666667</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="175">
@@ -3697,13 +3700,13 @@
         <v>2003</v>
       </c>
       <c r="C175" t="n">
-        <v>1.55833333333333</v>
+        <v>1.46666666666667</v>
       </c>
       <c r="D175" t="n">
-        <v>0.616666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E175" t="n">
-        <v>3.54166666666667</v>
+        <v>3.40833333333333</v>
       </c>
     </row>
     <row r="176">
@@ -3714,13 +3717,13 @@
         <v>2004</v>
       </c>
       <c r="C176" t="n">
-        <v>1.54166666666667</v>
+        <v>1.46666666666667</v>
       </c>
       <c r="D176" t="n">
-        <v>0.6</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E176" t="n">
-        <v>3.525</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="177">
@@ -3731,13 +3734,13 @@
         <v>2005</v>
       </c>
       <c r="C177" t="n">
-        <v>1.525</v>
+        <v>1.475</v>
       </c>
       <c r="D177" t="n">
-        <v>0.6</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E177" t="n">
-        <v>3.48333333333333</v>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="178">
@@ -3748,13 +3751,13 @@
         <v>2006</v>
       </c>
       <c r="C178" t="n">
-        <v>1.50833333333333</v>
+        <v>1.475</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E178" t="n">
-        <v>3.45</v>
+        <v>3.45833333333333</v>
       </c>
     </row>
     <row r="179">
@@ -3765,13 +3768,13 @@
         <v>2007</v>
       </c>
       <c r="C179" t="n">
-        <v>1.49166666666667</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="D179" t="n">
-        <v>0.591666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E179" t="n">
-        <v>3.425</v>
+        <v>3.43333333333333</v>
       </c>
     </row>
     <row r="180">
@@ -3782,13 +3785,13 @@
         <v>2008</v>
       </c>
       <c r="C180" t="n">
-        <v>1.48333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E180" t="n">
-        <v>3.40833333333333</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="181">
@@ -3799,13 +3802,13 @@
         <v>2009</v>
       </c>
       <c r="C181" t="n">
-        <v>1.5</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E181" t="n">
-        <v>3.425</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="182">
@@ -3816,13 +3819,13 @@
         <v>2010</v>
       </c>
       <c r="C182" t="n">
-        <v>1.5</v>
+        <v>1.425</v>
       </c>
       <c r="D182" t="n">
-        <v>0.608333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="E182" t="n">
-        <v>3.43333333333333</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="183">
@@ -3833,10 +3836,10 @@
         <v>2011</v>
       </c>
       <c r="C183" t="n">
-        <v>1.5</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D183" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="E183" t="n">
         <v>3.425</v>
@@ -3850,13 +3853,13 @@
         <v>2012</v>
       </c>
       <c r="C184" t="n">
-        <v>1.475</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D184" t="n">
-        <v>0.591666666666667</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E184" t="n">
-        <v>3.39166666666667</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="185">
@@ -3867,13 +3870,13 @@
         <v>2013</v>
       </c>
       <c r="C185" t="n">
-        <v>1.45833333333333</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="D185" t="n">
-        <v>0.583333333333333</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E185" t="n">
-        <v>3.35833333333333</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="186">
@@ -3884,13 +3887,13 @@
         <v>2014</v>
       </c>
       <c r="C186" t="n">
-        <v>1.45</v>
+        <v>1.41666666666667</v>
       </c>
       <c r="D186" t="n">
-        <v>0.575</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E186" t="n">
-        <v>3.35</v>
+        <v>3.40833333333333</v>
       </c>
     </row>
     <row r="187">
@@ -3901,13 +3904,13 @@
         <v>2015</v>
       </c>
       <c r="C187" t="n">
-        <v>1.45</v>
+        <v>1.40833333333333</v>
       </c>
       <c r="D187" t="n">
-        <v>0.575</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E187" t="n">
-        <v>3.35</v>
+        <v>3.43333333333333</v>
       </c>
     </row>
     <row r="188">
@@ -3918,13 +3921,13 @@
         <v>2016</v>
       </c>
       <c r="C188" t="n">
-        <v>1.44166666666667</v>
+        <v>1.40833333333333</v>
       </c>
       <c r="D188" t="n">
-        <v>0.575</v>
+        <v>0.55</v>
       </c>
       <c r="E188" t="n">
-        <v>3.325</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="189">
@@ -3935,13 +3938,13 @@
         <v>2017</v>
       </c>
       <c r="C189" t="n">
-        <v>1.45</v>
+        <v>1.39166666666667</v>
       </c>
       <c r="D189" t="n">
-        <v>0.583333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="E189" t="n">
-        <v>3.31666666666667</v>
+        <v>3.45833333333333</v>
       </c>
     </row>
     <row r="190">
@@ -3952,13 +3955,13 @@
         <v>2018</v>
       </c>
       <c r="C190" t="n">
-        <v>1.46666666666667</v>
+        <v>1.4</v>
       </c>
       <c r="D190" t="n">
-        <v>0.591666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E190" t="n">
-        <v>3.35833333333333</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="191">
@@ -3969,13 +3972,13 @@
         <v>2019</v>
       </c>
       <c r="C191" t="n">
-        <v>1.49166666666667</v>
+        <v>1.40833333333333</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6</v>
+        <v>0.558333333333333</v>
       </c>
       <c r="E191" t="n">
-        <v>3.4</v>
+        <v>3.41666666666667</v>
       </c>
     </row>
     <row r="192">
@@ -3986,13 +3989,13 @@
         <v>2020</v>
       </c>
       <c r="C192" t="n">
-        <v>1.325</v>
+        <v>1.61666666666667</v>
       </c>
       <c r="D192" t="n">
-        <v>0.516666666666667</v>
+        <v>0.675</v>
       </c>
       <c r="E192" t="n">
-        <v>3.225</v>
+        <v>3.80833333333333</v>
       </c>
     </row>
     <row r="193">
@@ -4003,407 +4006,461 @@
         <v>2021</v>
       </c>
       <c r="C193" t="n">
-        <v>1.61666666666667</v>
+        <v>1.55833333333333</v>
       </c>
       <c r="D193" t="n">
         <v>0.65</v>
       </c>
       <c r="E193" t="n">
-        <v>3.68333333333333</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194"/>
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
       <c r="B194" t="n">
         <v>1990</v>
       </c>
       <c r="C194" t="n">
-        <v>1.44166666666667</v>
+        <v>1.55</v>
       </c>
       <c r="D194" t="n">
-        <v>0.566666666666667</v>
+        <v>0.641666666666667</v>
       </c>
       <c r="E194" t="n">
-        <v>3.175</v>
+        <v>3.38333333333333</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195"/>
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
       <c r="B195" t="n">
         <v>1991</v>
       </c>
       <c r="C195" t="n">
-        <v>1.45</v>
+        <v>1.575</v>
       </c>
       <c r="D195" t="n">
-        <v>0.566666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="E195" t="n">
-        <v>3.175</v>
+        <v>3.41666666666667</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196"/>
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
       <c r="B196" t="n">
         <v>1992</v>
       </c>
       <c r="C196" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="D196" t="n">
-        <v>0.566666666666667</v>
+        <v>0.658333333333333</v>
       </c>
       <c r="E196" t="n">
-        <v>3.19166666666667</v>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197"/>
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
       <c r="B197" t="n">
         <v>1993</v>
       </c>
       <c r="C197" t="n">
-        <v>1.45</v>
+        <v>1.625</v>
       </c>
       <c r="D197" t="n">
-        <v>0.566666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E197" t="n">
-        <v>3.2</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198"/>
+      <c r="A198" t="s">
+        <v>11</v>
+      </c>
       <c r="B198" t="n">
         <v>1994</v>
       </c>
       <c r="C198" t="n">
-        <v>1.45</v>
+        <v>1.63333333333333</v>
       </c>
       <c r="D198" t="n">
-        <v>0.566666666666667</v>
+        <v>0.658333333333333</v>
       </c>
       <c r="E198" t="n">
-        <v>3.19166666666667</v>
+        <v>3.56666666666667</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199"/>
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
       <c r="B199" t="n">
         <v>1995</v>
       </c>
       <c r="C199" t="n">
-        <v>1.44166666666667</v>
+        <v>1.63333333333333</v>
       </c>
       <c r="D199" t="n">
-        <v>0.566666666666667</v>
+        <v>0.658333333333333</v>
       </c>
       <c r="E199" t="n">
-        <v>3.19166666666667</v>
+        <v>3.59166666666667</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200"/>
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
       <c r="B200" t="n">
         <v>1996</v>
       </c>
       <c r="C200" t="n">
-        <v>1.44166666666667</v>
+        <v>1.64166666666667</v>
       </c>
       <c r="D200" t="n">
-        <v>0.566666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E200" t="n">
-        <v>3.19166666666667</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201"/>
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
       <c r="B201" t="n">
         <v>1997</v>
       </c>
       <c r="C201" t="n">
-        <v>1.43333333333333</v>
+        <v>1.65</v>
       </c>
       <c r="D201" t="n">
-        <v>0.566666666666667</v>
+        <v>0.658333333333333</v>
       </c>
       <c r="E201" t="n">
-        <v>3.19166666666667</v>
+        <v>3.64166666666667</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202"/>
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
       <c r="B202" t="n">
         <v>1998</v>
       </c>
       <c r="C202" t="n">
-        <v>1.44166666666667</v>
+        <v>1.65</v>
       </c>
       <c r="D202" t="n">
-        <v>0.566666666666667</v>
+        <v>0.658333333333333</v>
       </c>
       <c r="E202" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203"/>
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
       <c r="B203" t="n">
         <v>1999</v>
       </c>
       <c r="C203" t="n">
-        <v>1.43333333333333</v>
+        <v>1.64166666666667</v>
       </c>
       <c r="D203" t="n">
-        <v>0.558333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="E203" t="n">
-        <v>3.19166666666667</v>
+        <v>3.64166666666667</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204"/>
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
       <c r="B204" t="n">
         <v>2000</v>
       </c>
       <c r="C204" t="n">
-        <v>1.43333333333333</v>
+        <v>1.61666666666667</v>
       </c>
       <c r="D204" t="n">
-        <v>0.566666666666667</v>
+        <v>0.641666666666667</v>
       </c>
       <c r="E204" t="n">
-        <v>3.2</v>
+        <v>3.61666666666667</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205"/>
+      <c r="A205" t="s">
+        <v>11</v>
+      </c>
       <c r="B205" t="n">
         <v>2001</v>
       </c>
       <c r="C205" t="n">
-        <v>1.43333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.566666666666667</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="E205" t="n">
-        <v>3.21666666666667</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206"/>
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
       <c r="B206" t="n">
         <v>2002</v>
       </c>
       <c r="C206" t="n">
-        <v>1.425</v>
+        <v>1.575</v>
       </c>
       <c r="D206" t="n">
-        <v>0.558333333333333</v>
+        <v>0.616666666666667</v>
       </c>
       <c r="E206" t="n">
-        <v>3.19166666666667</v>
+        <v>3.56666666666667</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207"/>
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
       <c r="B207" t="n">
         <v>2003</v>
       </c>
       <c r="C207" t="n">
-        <v>1.425</v>
+        <v>1.55833333333333</v>
       </c>
       <c r="D207" t="n">
-        <v>0.558333333333333</v>
+        <v>0.616666666666667</v>
       </c>
       <c r="E207" t="n">
-        <v>3.19166666666667</v>
+        <v>3.54166666666667</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208"/>
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
       <c r="B208" t="n">
         <v>2004</v>
       </c>
       <c r="C208" t="n">
-        <v>1.425</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="D208" t="n">
-        <v>0.566666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="E208" t="n">
-        <v>3.2</v>
+        <v>3.525</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209"/>
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
       <c r="B209" t="n">
         <v>2005</v>
       </c>
       <c r="C209" t="n">
-        <v>1.43333333333333</v>
+        <v>1.525</v>
       </c>
       <c r="D209" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="E209" t="n">
-        <v>3.20833333333333</v>
+        <v>3.48333333333333</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210"/>
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
       <c r="B210" t="n">
         <v>2006</v>
       </c>
       <c r="C210" t="n">
-        <v>1.43333333333333</v>
+        <v>1.50833333333333</v>
       </c>
       <c r="D210" t="n">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="E210" t="n">
-        <v>3.20833333333333</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211"/>
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
       <c r="B211" t="n">
         <v>2007</v>
       </c>
       <c r="C211" t="n">
-        <v>1.43333333333333</v>
+        <v>1.49166666666667</v>
       </c>
       <c r="D211" t="n">
-        <v>0.583333333333333</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E211" t="n">
-        <v>3.2</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212"/>
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
       <c r="B212" t="n">
         <v>2008</v>
       </c>
       <c r="C212" t="n">
-        <v>1.43333333333333</v>
+        <v>1.48333333333333</v>
       </c>
       <c r="D212" t="n">
-        <v>0.583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E212" t="n">
-        <v>3.2</v>
+        <v>3.40833333333333</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213"/>
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
       <c r="B213" t="n">
         <v>2009</v>
       </c>
       <c r="C213" t="n">
-        <v>1.43333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="D213" t="n">
-        <v>0.583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E213" t="n">
-        <v>3.18333333333333</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214"/>
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
       <c r="B214" t="n">
         <v>2010</v>
       </c>
       <c r="C214" t="n">
-        <v>1.425</v>
+        <v>1.5</v>
       </c>
       <c r="D214" t="n">
-        <v>0.583333333333333</v>
+        <v>0.608333333333333</v>
       </c>
       <c r="E214" t="n">
-        <v>3.175</v>
+        <v>3.43333333333333</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215"/>
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
       <c r="B215" t="n">
         <v>2011</v>
       </c>
       <c r="C215" t="n">
-        <v>1.43333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="D215" t="n">
-        <v>0.583333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E215" t="n">
-        <v>3.18333333333333</v>
+        <v>3.425</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216"/>
+      <c r="A216" t="s">
+        <v>11</v>
+      </c>
       <c r="B216" t="n">
         <v>2012</v>
       </c>
       <c r="C216" t="n">
-        <v>1.43333333333333</v>
+        <v>1.475</v>
       </c>
       <c r="D216" t="n">
-        <v>0.583333333333333</v>
+        <v>0.591666666666667</v>
       </c>
       <c r="E216" t="n">
-        <v>3.18333333333333</v>
+        <v>3.39166666666667</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217"/>
+      <c r="A217" t="s">
+        <v>11</v>
+      </c>
       <c r="B217" t="n">
         <v>2013</v>
       </c>
       <c r="C217" t="n">
-        <v>1.43333333333333</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="D217" t="n">
-        <v>0.591666666666667</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E217" t="n">
-        <v>3.18333333333333</v>
+        <v>3.35833333333333</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218"/>
+      <c r="A218" t="s">
+        <v>11</v>
+      </c>
       <c r="B218" t="n">
         <v>2014</v>
       </c>
       <c r="C218" t="n">
-        <v>1.43333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="E218" t="n">
-        <v>3.175</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219"/>
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
       <c r="B219" t="n">
         <v>2015</v>
       </c>
       <c r="C219" t="n">
-        <v>1.43333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="E219" t="n">
-        <v>3.175</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220"/>
+      <c r="A220" t="s">
+        <v>11</v>
+      </c>
       <c r="B220" t="n">
         <v>2016</v>
       </c>
@@ -4411,85 +4468,95 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="E220" t="n">
-        <v>3.175</v>
+        <v>3.325</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221"/>
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
       <c r="B221" t="n">
         <v>2017</v>
       </c>
       <c r="C221" t="n">
-        <v>1.44166666666667</v>
+        <v>1.45</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E221" t="n">
-        <v>3.19166666666667</v>
+        <v>3.31666666666667</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222"/>
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
       <c r="B222" t="n">
         <v>2018</v>
       </c>
       <c r="C222" t="n">
-        <v>1.44166666666667</v>
+        <v>1.46666666666667</v>
       </c>
       <c r="D222" t="n">
+        <v>0.591666666666667</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.35833333333333</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="D223" t="n">
         <v>0.6</v>
       </c>
-      <c r="E222" t="n">
-        <v>3.19166666666667</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223"/>
-      <c r="B223" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.44166666666667</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.608333333333333</v>
-      </c>
       <c r="E223" t="n">
-        <v>3.19166666666667</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224"/>
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
       <c r="B224" t="n">
         <v>2020</v>
       </c>
       <c r="C224" t="n">
-        <v>1.48333333333333</v>
+        <v>1.325</v>
       </c>
       <c r="D224" t="n">
-        <v>0.633333333333333</v>
+        <v>0.516666666666667</v>
       </c>
       <c r="E224" t="n">
-        <v>3.20833333333333</v>
+        <v>3.225</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225"/>
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
       <c r="B225" t="n">
         <v>2021</v>
       </c>
       <c r="C225" t="n">
-        <v>1.48333333333333</v>
+        <v>1.61666666666667</v>
       </c>
       <c r="D225" t="n">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="E225" t="n">
-        <v>3.18333333333333</v>
+        <v>3.68333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +4586,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>1990</v>
@@ -4530,7 +4597,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>2019</v>
@@ -4541,7 +4608,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>2021</v>
@@ -4552,7 +4619,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>1990</v>
@@ -4563,7 +4630,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>1990</v>
@@ -4574,7 +4641,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>2019</v>
@@ -4585,7 +4652,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>1990</v>
@@ -4596,7 +4663,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>2019</v>
@@ -4607,7 +4674,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>1990</v>
@@ -4618,7 +4685,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>2019</v>
@@ -4629,7 +4696,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>2021</v>
@@ -4640,7 +4707,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>1990</v>
@@ -4651,7 +4718,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>2019</v>
@@ -4662,7 +4729,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
         <v>2021</v>
@@ -4673,7 +4740,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>1990</v>
@@ -4684,7 +4751,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>2019</v>
@@ -4695,7 +4762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n">
         <v>1990</v>
@@ -4706,7 +4773,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="n">
         <v>1990</v>
@@ -4717,7 +4784,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>2019</v>
@@ -4728,7 +4795,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>1990</v>
@@ -4739,7 +4806,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
         <v>2019</v>
@@ -4750,7 +4817,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>2021</v>
@@ -4761,7 +4828,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>1990</v>
@@ -4772,7 +4839,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" t="n">
         <v>2019</v>
@@ -4783,7 +4850,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" t="n">
         <v>1990</v>
@@ -4794,7 +4861,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n">
         <v>2019</v>
@@ -4805,7 +4872,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="n">
         <v>1990</v>
@@ -4816,7 +4883,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="n">
         <v>2019</v>
@@ -4827,7 +4894,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="n">
         <v>2021</v>
@@ -4838,7 +4905,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="n">
         <v>1990</v>
@@ -4849,7 +4916,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" t="n">
         <v>2019</v>
@@ -4860,7 +4927,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" t="n">
         <v>2021</v>
@@ -4871,7 +4938,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" t="n">
         <v>1990</v>
@@ -4882,7 +4949,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" t="n">
         <v>2019</v>
@@ -4893,7 +4960,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n">
         <v>2021</v>
@@ -4904,7 +4971,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n">
         <v>1990</v>
@@ -4915,7 +4982,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" t="n">
         <v>2019</v>
@@ -4926,7 +4993,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B39" t="n">
         <v>2021</v>
@@ -4937,7 +5004,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="n">
         <v>1990</v>
@@ -4948,7 +5015,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="n">
         <v>1990</v>
@@ -4959,7 +5026,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" t="n">
         <v>2019</v>
@@ -4970,7 +5037,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" t="n">
         <v>1990</v>
@@ -4981,7 +5048,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" t="n">
         <v>2019</v>
@@ -4992,7 +5059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" t="n">
         <v>2021</v>
@@ -5003,7 +5070,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" t="n">
         <v>1990</v>
@@ -5014,7 +5081,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="n">
         <v>2019</v>
@@ -5025,7 +5092,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" t="n">
         <v>2021</v>
@@ -5036,7 +5103,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49" t="n">
         <v>1990</v>
@@ -5047,7 +5114,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" t="n">
         <v>2019</v>
@@ -5058,7 +5125,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" t="n">
         <v>2021</v>
@@ -5069,7 +5136,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" t="n">
         <v>1990</v>
@@ -5080,7 +5147,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53" t="n">
         <v>2019</v>
@@ -5091,7 +5158,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54" t="n">
         <v>2021</v>
@@ -5102,7 +5169,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55" t="n">
         <v>1990</v>
@@ -5113,7 +5180,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" t="n">
         <v>2019</v>
@@ -5124,7 +5191,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B57" t="n">
         <v>2021</v>
@@ -5135,7 +5202,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" t="n">
         <v>1990</v>
@@ -5146,7 +5213,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" t="n">
         <v>2019</v>
@@ -5157,7 +5224,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60" t="n">
         <v>2021</v>
@@ -5168,7 +5235,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61" t="n">
         <v>1990</v>
@@ -5179,7 +5246,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" t="n">
         <v>2019</v>
@@ -5190,7 +5257,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" t="n">
         <v>2021</v>
@@ -5201,7 +5268,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B64" t="n">
         <v>1990</v>
@@ -5212,7 +5279,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" t="n">
         <v>2019</v>
@@ -5223,7 +5290,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" t="n">
         <v>2021</v>
@@ -5234,7 +5301,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B67" t="n">
         <v>1990</v>
@@ -5245,7 +5312,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B68" t="n">
         <v>1990</v>
@@ -5256,7 +5323,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B69" t="n">
         <v>2019</v>
@@ -5267,7 +5334,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" t="n">
         <v>1990</v>
@@ -5278,7 +5345,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B71" t="n">
         <v>2019</v>
@@ -5289,7 +5356,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B72" t="n">
         <v>2021</v>
@@ -5300,7 +5367,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B73" t="n">
         <v>1990</v>
@@ -5311,7 +5378,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" t="n">
         <v>2019</v>
@@ -5322,7 +5389,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B75" t="n">
         <v>2021</v>
@@ -5333,7 +5400,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B76" t="n">
         <v>1990</v>
@@ -5344,7 +5411,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B77" t="n">
         <v>2019</v>
@@ -5355,7 +5422,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B78" t="n">
         <v>2021</v>
@@ -5366,7 +5433,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B79" t="n">
         <v>1990</v>
@@ -5377,7 +5444,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B80" t="n">
         <v>2019</v>
@@ -5388,7 +5455,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B81" t="n">
         <v>2021</v>
@@ -5399,7 +5466,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B82" t="n">
         <v>1990</v>
@@ -5410,7 +5477,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" t="n">
         <v>2019</v>
@@ -5421,7 +5488,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B84" t="n">
         <v>1990</v>
@@ -5432,7 +5499,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B85" t="n">
         <v>2019</v>
@@ -5443,7 +5510,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B86" t="n">
         <v>2021</v>
@@ -5454,7 +5521,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B87" t="n">
         <v>1990</v>
@@ -5465,7 +5532,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B88" t="n">
         <v>2019</v>
@@ -5476,7 +5543,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B89" t="n">
         <v>2021</v>
@@ -5487,7 +5554,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B90" t="n">
         <v>1990</v>
@@ -5498,7 +5565,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B91" t="n">
         <v>2019</v>
@@ -5509,7 +5576,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B92" t="n">
         <v>2021</v>
@@ -5520,7 +5587,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B93" t="n">
         <v>1990</v>
@@ -5531,7 +5598,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B94" t="n">
         <v>2019</v>
@@ -5542,7 +5609,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" t="n">
         <v>2021</v>
@@ -5553,7 +5620,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B96" t="n">
         <v>1990</v>
@@ -5564,7 +5631,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B97" t="n">
         <v>1990</v>
@@ -5575,7 +5642,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B98" t="n">
         <v>2019</v>
@@ -5586,7 +5653,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99" t="n">
         <v>1990</v>
@@ -5597,7 +5664,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" t="n">
         <v>2019</v>
@@ -5608,7 +5675,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" t="n">
         <v>2021</v>
@@ -5619,7 +5686,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B102" t="n">
         <v>1990</v>
@@ -5630,7 +5697,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B103" t="n">
         <v>2019</v>
@@ -5641,7 +5708,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B104" t="n">
         <v>2021</v>
@@ -5652,7 +5719,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B105" t="n">
         <v>1990</v>
@@ -5663,7 +5730,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B106" t="n">
         <v>2019</v>
@@ -5674,7 +5741,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B107" t="n">
         <v>2021</v>
@@ -5685,7 +5752,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B108" t="n">
         <v>1990</v>
@@ -5696,7 +5763,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B109" t="n">
         <v>2019</v>
@@ -5707,7 +5774,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B110" t="n">
         <v>1990</v>
@@ -5718,7 +5785,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B111" t="n">
         <v>1990</v>
@@ -5729,7 +5796,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B112" t="n">
         <v>2019</v>
@@ -5740,7 +5807,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B113" t="n">
         <v>2021</v>
@@ -5751,7 +5818,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B114" t="n">
         <v>1990</v>
@@ -5762,7 +5829,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B115" t="n">
         <v>2019</v>
@@ -5773,7 +5840,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B116" t="n">
         <v>2021</v>
@@ -5784,7 +5851,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B117" t="n">
         <v>1990</v>
@@ -5795,7 +5862,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B118" t="n">
         <v>2019</v>
@@ -5806,7 +5873,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B119" t="n">
         <v>2021</v>
@@ -5817,7 +5884,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B120" t="n">
         <v>1990</v>
@@ -5828,7 +5895,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B121" t="n">
         <v>2019</v>
@@ -5839,7 +5906,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B122" t="n">
         <v>2021</v>
@@ -5850,7 +5917,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B123" t="n">
         <v>1990</v>
@@ -5861,7 +5928,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" t="n">
         <v>2019</v>
@@ -5872,7 +5939,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B125" t="n">
         <v>2021</v>
@@ -5883,7 +5950,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B126" t="n">
         <v>1990</v>
@@ -5894,7 +5961,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B127" t="n">
         <v>1990</v>
@@ -5905,7 +5972,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B128" t="n">
         <v>2019</v>
@@ -5916,7 +5983,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B129" t="n">
         <v>2021</v>
@@ -5927,7 +5994,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B130" t="n">
         <v>1990</v>
@@ -5938,7 +6005,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B131" t="n">
         <v>2019</v>
@@ -5949,7 +6016,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B132" t="n">
         <v>2021</v>
@@ -5960,7 +6027,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B133" t="n">
         <v>1990</v>
@@ -5971,7 +6038,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B134" t="n">
         <v>2019</v>
@@ -5982,7 +6049,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B135" t="n">
         <v>1990</v>
@@ -5993,7 +6060,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B136" t="n">
         <v>2019</v>
@@ -6004,7 +6071,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B137" t="n">
         <v>2021</v>
@@ -6015,7 +6082,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B138" t="n">
         <v>1990</v>
@@ -6026,7 +6093,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B139" t="n">
         <v>2019</v>
@@ -6037,7 +6104,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B140" t="n">
         <v>2021</v>
@@ -6048,7 +6115,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B141" t="n">
         <v>1990</v>
@@ -6059,7 +6126,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B142" t="n">
         <v>2019</v>
@@ -6070,7 +6137,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B143" t="n">
         <v>1990</v>
@@ -6081,7 +6148,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B144" t="n">
         <v>2019</v>
@@ -6092,7 +6159,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B145" t="n">
         <v>1990</v>
@@ -6103,7 +6170,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B146" t="n">
         <v>2019</v>
@@ -6114,7 +6181,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B147" t="n">
         <v>2021</v>
@@ -6125,7 +6192,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B148" t="n">
         <v>1990</v>
@@ -6136,7 +6203,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B149" t="n">
         <v>1990</v>
@@ -6147,7 +6214,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B150" t="n">
         <v>2019</v>
@@ -6158,7 +6225,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B151" t="n">
         <v>2021</v>
@@ -6169,7 +6236,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B152" t="n">
         <v>1990</v>
@@ -6180,7 +6247,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B153" t="n">
         <v>2019</v>
@@ -6191,7 +6258,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B154" t="n">
         <v>1990</v>
@@ -6202,7 +6269,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B155" t="n">
         <v>2019</v>
@@ -6213,7 +6280,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B156" t="n">
         <v>2021</v>
@@ -6224,7 +6291,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B157" t="n">
         <v>1990</v>
@@ -6235,7 +6302,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B158" t="n">
         <v>2019</v>
@@ -6246,7 +6313,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B159" t="n">
         <v>2021</v>
@@ -6257,7 +6324,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B160" t="n">
         <v>1990</v>
@@ -6268,7 +6335,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B161" t="n">
         <v>2019</v>
@@ -6279,7 +6346,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B162" t="n">
         <v>2021</v>
@@ -6290,7 +6357,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B163" t="n">
         <v>1990</v>
@@ -6301,7 +6368,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B164" t="n">
         <v>2019</v>
@@ -6312,7 +6379,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B165" t="n">
         <v>2021</v>
@@ -6323,7 +6390,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B166" t="n">
         <v>1990</v>
@@ -6334,7 +6401,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B167" t="n">
         <v>2019</v>
@@ -6345,7 +6412,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B168" t="n">
         <v>2021</v>
@@ -6356,7 +6423,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B169" t="n">
         <v>1990</v>
@@ -6367,7 +6434,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B170" t="n">
         <v>2019</v>
@@ -6378,7 +6445,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B171" t="n">
         <v>2021</v>
@@ -6389,7 +6456,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B172" t="n">
         <v>1990</v>
@@ -6400,7 +6467,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B173" t="n">
         <v>2019</v>
@@ -6411,7 +6478,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B174" t="n">
         <v>2021</v>
@@ -6422,7 +6489,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B175" t="n">
         <v>1990</v>
@@ -6433,7 +6500,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B176" t="n">
         <v>2019</v>
@@ -6444,7 +6511,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B177" t="n">
         <v>2021</v>
@@ -6455,7 +6522,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B178" t="n">
         <v>1990</v>
@@ -6466,7 +6533,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B179" t="n">
         <v>2019</v>
@@ -6477,7 +6544,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B180" t="n">
         <v>2021</v>
@@ -6488,7 +6555,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B181" t="n">
         <v>1990</v>
@@ -6499,7 +6566,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B182" t="n">
         <v>2019</v>
@@ -6510,7 +6577,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B183" t="n">
         <v>1990</v>
@@ -6521,7 +6588,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B184" t="n">
         <v>2019</v>
@@ -6532,7 +6599,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B185" t="n">
         <v>2021</v>
@@ -6543,7 +6610,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B186" t="n">
         <v>1990</v>
@@ -6554,7 +6621,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B187" t="n">
         <v>2019</v>
@@ -6565,7 +6632,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B188" t="n">
         <v>2021</v>
@@ -6576,7 +6643,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B189" t="n">
         <v>1990</v>
@@ -6587,7 +6654,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B190" t="n">
         <v>2019</v>
@@ -6598,7 +6665,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B191" t="n">
         <v>2021</v>
@@ -6609,7 +6676,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B192" t="n">
         <v>1990</v>
@@ -6620,7 +6687,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B193" t="n">
         <v>1990</v>
@@ -6631,7 +6698,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B194" t="n">
         <v>2019</v>
@@ -6642,7 +6709,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B195" t="n">
         <v>2021</v>
@@ -6653,7 +6720,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B196" t="n">
         <v>1990</v>
@@ -6664,7 +6731,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B197" t="n">
         <v>2019</v>
@@ -6675,7 +6742,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B198" t="n">
         <v>2021</v>
@@ -6686,7 +6753,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B199" t="n">
         <v>1990</v>
@@ -6697,7 +6764,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B200" t="n">
         <v>2019</v>
@@ -6708,7 +6775,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B201" t="n">
         <v>2021</v>
@@ -6719,7 +6786,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B202" t="n">
         <v>1990</v>
@@ -6730,7 +6797,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B203" t="n">
         <v>1990</v>
@@ -6741,7 +6808,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B204" t="n">
         <v>1990</v>
@@ -6752,7 +6819,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B205" t="n">
         <v>2019</v>
@@ -6763,7 +6830,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B206" t="n">
         <v>1990</v>
@@ -6774,7 +6841,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B207" t="n">
         <v>2019</v>
@@ -6785,7 +6852,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B208" t="n">
         <v>2021</v>
@@ -6796,7 +6863,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B209" t="n">
         <v>1990</v>
@@ -6807,7 +6874,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B210" t="n">
         <v>2019</v>
@@ -6818,7 +6885,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B211" t="n">
         <v>2021</v>
@@ -6829,7 +6896,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B212" t="n">
         <v>1990</v>
@@ -6840,7 +6907,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B213" t="n">
         <v>2019</v>
@@ -6851,7 +6918,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B214" t="n">
         <v>2021</v>
@@ -6862,7 +6929,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B215" t="n">
         <v>1990</v>
@@ -6873,7 +6940,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B216" t="n">
         <v>2019</v>
@@ -6884,7 +6951,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B217" t="n">
         <v>1990</v>
@@ -6895,7 +6962,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B218" t="n">
         <v>2019</v>
@@ -6906,7 +6973,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B219" t="n">
         <v>2021</v>
@@ -6917,7 +6984,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B220" t="n">
         <v>1990</v>
@@ -6928,7 +6995,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B221" t="n">
         <v>2019</v>
@@ -6939,7 +7006,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B222" t="n">
         <v>2021</v>
@@ -6950,7 +7017,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B223" t="n">
         <v>1990</v>
@@ -6961,7 +7028,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B224" t="n">
         <v>2019</v>
@@ -6972,7 +7039,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B225" t="n">
         <v>2021</v>
@@ -6983,7 +7050,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B226" t="n">
         <v>1990</v>
@@ -6994,7 +7061,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B227" t="n">
         <v>2019</v>
@@ -7005,7 +7072,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B228" t="n">
         <v>2021</v>
@@ -7016,7 +7083,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B229" t="n">
         <v>1990</v>
@@ -7027,7 +7094,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B230" t="n">
         <v>2019</v>
@@ -7038,7 +7105,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B231" t="n">
         <v>1990</v>
@@ -7049,7 +7116,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B232" t="n">
         <v>2019</v>
@@ -7060,7 +7127,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B233" t="n">
         <v>2021</v>
@@ -7071,7 +7138,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B234" t="n">
         <v>1990</v>
@@ -7082,7 +7149,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B235" t="n">
         <v>2019</v>
@@ -7093,7 +7160,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B236" t="n">
         <v>1990</v>
@@ -7104,7 +7171,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B237" t="n">
         <v>2019</v>
@@ -7115,7 +7182,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B238" t="n">
         <v>2021</v>
@@ -7126,7 +7193,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B239" t="n">
         <v>1990</v>
@@ -7137,7 +7204,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B240" t="n">
         <v>2019</v>
@@ -7148,7 +7215,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B241" t="n">
         <v>2021</v>
@@ -7159,7 +7226,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B242" t="n">
         <v>1990</v>
@@ -7170,7 +7237,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B243" t="n">
         <v>2019</v>
@@ -7181,7 +7248,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B244" t="n">
         <v>1990</v>
@@ -7192,7 +7259,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B245" t="n">
         <v>2019</v>
@@ -7203,7 +7270,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B246" t="n">
         <v>2021</v>
@@ -7214,7 +7281,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B247" t="n">
         <v>1990</v>
@@ -7225,7 +7292,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B248" t="n">
         <v>2019</v>
@@ -7236,7 +7303,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B249" t="n">
         <v>2021</v>
@@ -7247,7 +7314,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B250" t="n">
         <v>1990</v>
@@ -7258,7 +7325,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B251" t="n">
         <v>2019</v>
@@ -7269,7 +7336,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B252" t="n">
         <v>2021</v>
@@ -7280,7 +7347,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B253" t="n">
         <v>1990</v>
@@ -7291,7 +7358,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B254" t="n">
         <v>2019</v>
@@ -7302,7 +7369,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B255" t="n">
         <v>2021</v>
@@ -7313,7 +7380,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B256" t="n">
         <v>1990</v>
@@ -7324,7 +7391,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B257" t="n">
         <v>2019</v>
@@ -7335,7 +7402,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B258" t="n">
         <v>2021</v>
@@ -7346,7 +7413,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B259" t="n">
         <v>1990</v>
@@ -7357,7 +7424,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B260" t="n">
         <v>2019</v>
@@ -7368,7 +7435,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B261" t="n">
         <v>2021</v>
@@ -7379,7 +7446,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B262" t="n">
         <v>1990</v>
@@ -7390,7 +7457,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B263" t="n">
         <v>2019</v>
@@ -7401,7 +7468,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B264" t="n">
         <v>2021</v>
@@ -7412,7 +7479,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B265" t="n">
         <v>1990</v>
@@ -7423,7 +7490,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B266" t="n">
         <v>2019</v>
@@ -7434,7 +7501,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B267" t="n">
         <v>2021</v>
@@ -7445,7 +7512,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B268" t="n">
         <v>1990</v>
@@ -7456,7 +7523,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B269" t="n">
         <v>1990</v>
@@ -7467,7 +7534,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B270" t="n">
         <v>1990</v>
@@ -7478,7 +7545,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B271" t="n">
         <v>2019</v>
@@ -7489,7 +7556,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B272" t="n">
         <v>2021</v>
@@ -7500,7 +7567,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B273" t="n">
         <v>1990</v>
@@ -7511,7 +7578,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B274" t="n">
         <v>2019</v>
@@ -7522,7 +7589,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B275" t="n">
         <v>2021</v>
@@ -7533,7 +7600,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B276" t="n">
         <v>1990</v>
@@ -7544,7 +7611,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B277" t="n">
         <v>2019</v>
@@ -7555,7 +7622,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B278" t="n">
         <v>2021</v>
@@ -7566,7 +7633,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B279" t="n">
         <v>1990</v>
@@ -7577,7 +7644,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B280" t="n">
         <v>2019</v>
@@ -7588,7 +7655,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B281" t="n">
         <v>2021</v>
@@ -7599,7 +7666,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B282" t="n">
         <v>1990</v>
@@ -7610,7 +7677,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B283" t="n">
         <v>1990</v>
@@ -7621,7 +7688,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B284" t="n">
         <v>1990</v>
@@ -7632,7 +7699,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B285" t="n">
         <v>2019</v>
@@ -7643,7 +7710,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B286" t="n">
         <v>2021</v>
@@ -7654,7 +7721,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B287" t="n">
         <v>1990</v>
@@ -7665,7 +7732,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B288" t="n">
         <v>2019</v>
@@ -7676,7 +7743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B289" t="n">
         <v>2021</v>
@@ -7687,7 +7754,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B290" t="n">
         <v>1990</v>
@@ -7698,7 +7765,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B291" t="n">
         <v>2019</v>
@@ -7709,7 +7776,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B292" t="n">
         <v>2021</v>
@@ -7720,7 +7787,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B293" t="n">
         <v>1990</v>
@@ -7731,7 +7798,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B294" t="n">
         <v>2019</v>
@@ -7742,7 +7809,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B295" t="n">
         <v>1990</v>
@@ -7753,7 +7820,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B296" t="n">
         <v>2019</v>
@@ -7764,7 +7831,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B297" t="n">
         <v>2021</v>
@@ -7775,7 +7842,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B298" t="n">
         <v>1990</v>
@@ -7786,7 +7853,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B299" t="n">
         <v>2019</v>
@@ -7797,7 +7864,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B300" t="n">
         <v>2021</v>
@@ -7808,7 +7875,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B301" t="n">
         <v>2019</v>

--- a/outcome/fig2.xlsx
+++ b/outcome/fig2.xlsx
@@ -57,16 +57,16 @@
     <t xml:space="preserve">1990</t>
   </si>
   <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diff1</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
+    <t xml:space="preserve">2021</t>
   </si>
   <si>
     <t xml:space="preserve">Diff2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
   </si>
   <si>
     <t xml:space="preserve">ASM</t>
@@ -5477,10 +5477,10 @@
         <v>1.34166666666667</v>
       </c>
       <c r="D2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.408333333333333</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.75</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -5496,10 +5496,10 @@
         <v>1.54166666666667</v>
       </c>
       <c r="D3" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0666666666666667</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.60833333333333</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -5515,16 +5515,16 @@
         <v>1.4</v>
       </c>
       <c r="D4" t="n">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.0666666666666667</v>
       </c>
-      <c r="E4" t="n">
-        <v>1.46666666666667</v>
-      </c>
       <c r="F4" t="n">
+        <v>1.50833333333333</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="5">
@@ -5538,16 +5538,16 @@
         <v>1.53333333333333</v>
       </c>
       <c r="D5" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.133333333333334</v>
       </c>
-      <c r="E5" t="n">
-        <v>1.66666666666667</v>
-      </c>
       <c r="F5" t="n">
+        <v>1.74166666666667</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.208333333333333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -5561,16 +5561,16 @@
         <v>1.55</v>
       </c>
       <c r="D6" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.59166666666667</v>
-      </c>
       <c r="F6" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0666666666666664</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -5584,10 +5584,10 @@
         <v>1.53333333333333</v>
       </c>
       <c r="D7" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.69166666666667</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -5603,10 +5603,10 @@
         <v>1.45</v>
       </c>
       <c r="D8" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.125</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.575</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -5622,10 +5622,10 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D9" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.166666666666667</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.675</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -5641,16 +5641,16 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D10" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1.525</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.0916666666666668</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.525</v>
       </c>
     </row>
     <row r="11">
@@ -5664,16 +5664,16 @@
         <v>1.6</v>
       </c>
       <c r="D11" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E11" t="n">
-        <v>1.69166666666667</v>
-      </c>
       <c r="F11" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.70833333333333</v>
       </c>
     </row>
     <row r="12">
@@ -5687,10 +5687,10 @@
         <v>1.46666666666667</v>
       </c>
       <c r="D12" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.116666666666666</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.58333333333333</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -5706,16 +5706,16 @@
         <v>1.325</v>
       </c>
       <c r="D13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.0249999999999999</v>
       </c>
-      <c r="E13" t="n">
-        <v>1.35</v>
-      </c>
       <c r="F13" t="n">
+        <v>1.35833333333333</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.0333333333333334</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.35833333333333</v>
       </c>
     </row>
     <row r="14">
@@ -5729,16 +5729,16 @@
         <v>1.525</v>
       </c>
       <c r="D14" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.116666666666666</v>
       </c>
-      <c r="E14" t="n">
-        <v>1.64166666666667</v>
-      </c>
       <c r="F14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.65</v>
       </c>
     </row>
     <row r="15">
@@ -5752,16 +5752,16 @@
         <v>1.30833333333333</v>
       </c>
       <c r="D15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E15" t="n">
-        <v>1.4</v>
-      </c>
       <c r="F15" t="n">
+        <v>1.41666666666667</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -5775,10 +5775,10 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D16" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.366666666666667</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.80833333333333</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -5794,10 +5794,10 @@
         <v>1.525</v>
       </c>
       <c r="D17" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.233333333333333</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.75833333333333</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -5813,10 +5813,10 @@
         <v>1.53333333333333</v>
       </c>
       <c r="D18" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.64166666666667</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -5832,16 +5832,16 @@
         <v>1.60833333333333</v>
       </c>
       <c r="D19" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E19" t="n">
         <v>-0.0333333333333334</v>
       </c>
-      <c r="E19" t="n">
-        <v>1.575</v>
-      </c>
       <c r="F19" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.00833333333333308</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -5855,16 +5855,16 @@
         <v>1.36666666666667</v>
       </c>
       <c r="D20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.233333333333333</v>
       </c>
-      <c r="E20" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F20" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.258333333333334</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.625</v>
       </c>
     </row>
     <row r="21">
@@ -5878,16 +5878,16 @@
         <v>1.41666666666667</v>
       </c>
       <c r="D21" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.125</v>
       </c>
-      <c r="E21" t="n">
-        <v>1.54166666666667</v>
-      </c>
       <c r="F21" t="n">
+        <v>1.55833333333333</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.141666666666667</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="22">
@@ -5901,16 +5901,16 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D22" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.15</v>
       </c>
-      <c r="E22" t="n">
-        <v>1.44166666666667</v>
-      </c>
       <c r="F22" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.133333333333333</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.425</v>
       </c>
     </row>
     <row r="23">
@@ -5924,16 +5924,16 @@
         <v>1.30833333333333</v>
       </c>
       <c r="D23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E23" t="n">
-        <v>1.45</v>
-      </c>
       <c r="F23" t="n">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -5947,16 +5947,16 @@
         <v>1.55</v>
       </c>
       <c r="D24" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.0583333333333333</v>
       </c>
-      <c r="E24" t="n">
-        <v>1.60833333333333</v>
-      </c>
       <c r="F24" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.0666666666666664</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -5970,16 +5970,16 @@
         <v>1.4</v>
       </c>
       <c r="D25" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.0916666666666663</v>
       </c>
-      <c r="E25" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.0999999999999999</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="26">
@@ -5993,16 +5993,16 @@
         <v>1.525</v>
       </c>
       <c r="D26" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.183333333333333</v>
       </c>
-      <c r="E26" t="n">
-        <v>1.70833333333333</v>
-      </c>
       <c r="F26" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.725</v>
       </c>
     </row>
     <row r="27">
@@ -6016,16 +6016,16 @@
         <v>1.31666666666667</v>
       </c>
       <c r="D27" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1.425</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.425</v>
       </c>
     </row>
     <row r="28">
@@ -6039,16 +6039,16 @@
         <v>1.35</v>
       </c>
       <c r="D28" t="n">
+        <v>1.50833333333333</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.158333333333334</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1.50833333333333</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.158333333333334</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="29">
@@ -6062,16 +6062,16 @@
         <v>1.575</v>
       </c>
       <c r="D29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.0249999999999999</v>
       </c>
-      <c r="E29" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F29" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.0416666666666665</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -6085,16 +6085,16 @@
         <v>1.26666666666667</v>
       </c>
       <c r="D30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.133333333333334</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>1.4</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.133333333333334</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="31">
@@ -6108,16 +6108,16 @@
         <v>1.31666666666667</v>
       </c>
       <c r="D31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.0333333333333332</v>
       </c>
-      <c r="E31" t="n">
-        <v>1.35</v>
-      </c>
       <c r="F31" t="n">
+        <v>1.35833333333333</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.0416666666666667</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.35833333333333</v>
       </c>
     </row>
     <row r="32">
@@ -6131,16 +6131,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D32" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.0749999999999997</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1.58333333333333</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.0749999999999997</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -6154,16 +6154,16 @@
         <v>1.58333333333333</v>
       </c>
       <c r="D33" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="E33" t="n">
         <v>-0.0666666666666667</v>
       </c>
-      <c r="E33" t="n">
-        <v>1.51666666666667</v>
-      </c>
       <c r="F33" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="G33" t="n">
         <v>-0.0416666666666665</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="34">
@@ -6177,16 +6177,16 @@
         <v>1.58333333333333</v>
       </c>
       <c r="D34" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.0500000000000003</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>1.63333333333333</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.0500000000000003</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="35">
@@ -6200,16 +6200,16 @@
         <v>1.38333333333333</v>
       </c>
       <c r="D35" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.133333333333333</v>
       </c>
-      <c r="E35" t="n">
-        <v>1.51666666666667</v>
-      </c>
       <c r="F35" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="36">
@@ -6223,16 +6223,16 @@
         <v>1.6</v>
       </c>
       <c r="D36" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F36" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.0416666666666667</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.64166666666667</v>
       </c>
     </row>
     <row r="37">
@@ -6246,10 +6246,10 @@
         <v>1.49166666666667</v>
       </c>
       <c r="D37" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.125</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.61666666666667</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
@@ -6265,10 +6265,10 @@
         <v>1.425</v>
       </c>
       <c r="D38" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.53333333333333</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
@@ -6284,10 +6284,10 @@
         <v>1.48333333333333</v>
       </c>
       <c r="D39" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.59166666666667</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -6303,10 +6303,10 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D40" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.116666666666666</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.475</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -6322,16 +6322,16 @@
         <v>1.41666666666667</v>
       </c>
       <c r="D41" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.175</v>
       </c>
-      <c r="E41" t="n">
-        <v>1.59166666666667</v>
-      </c>
       <c r="F41" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.191666666666667</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="42">
@@ -6345,10 +6345,10 @@
         <v>1.73333333333333</v>
       </c>
       <c r="D42" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="E42" t="n">
         <v>-0.0750000000000002</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.65833333333333</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
@@ -6364,16 +6364,16 @@
         <v>1.6</v>
       </c>
       <c r="D43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F43" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.00833333333333353</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="44">
@@ -6387,16 +6387,16 @@
         <v>1.39166666666667</v>
       </c>
       <c r="D44" t="n">
+        <v>1.38333333333333</v>
+      </c>
+      <c r="E44" t="n">
         <v>-0.00833333333333308</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>1.38333333333333</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>-0.00833333333333308</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.38333333333333</v>
       </c>
     </row>
     <row r="45">
@@ -6410,16 +6410,16 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D45" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>1.44166666666667</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.0083333333333333</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1.44166666666667</v>
       </c>
     </row>
     <row r="46">
@@ -6433,16 +6433,16 @@
         <v>1.65833333333333</v>
       </c>
       <c r="D46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E46" t="n">
         <v>-0.00833333333333308</v>
       </c>
-      <c r="E46" t="n">
-        <v>1.65</v>
-      </c>
       <c r="F46" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="G46" t="n">
         <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="47">
@@ -6456,16 +6456,16 @@
         <v>1.29166666666667</v>
       </c>
       <c r="D47" t="n">
+        <v>1.39166666666667</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.0999999999999999</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>1.39166666666667</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.0999999999999999</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.39166666666667</v>
       </c>
     </row>
     <row r="48">
@@ -6479,16 +6479,16 @@
         <v>1.61666666666667</v>
       </c>
       <c r="D48" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.0166666666666671</v>
       </c>
-      <c r="E48" t="n">
-        <v>1.63333333333333</v>
-      </c>
       <c r="F48" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.108333333333334</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.725</v>
       </c>
     </row>
     <row r="49">
@@ -6502,16 +6502,16 @@
         <v>1.35</v>
       </c>
       <c r="D49" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E49" t="n">
-        <v>1.45833333333333</v>
-      </c>
       <c r="F49" t="n">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.133333333333334</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="50">
@@ -6525,16 +6525,16 @@
         <v>1.4</v>
       </c>
       <c r="D50" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.0749999999999997</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.475</v>
-      </c>
       <c r="F50" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.0916666666666663</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.49166666666667</v>
       </c>
     </row>
     <row r="51">
@@ -6548,16 +6548,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D51" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.15</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>1.65833333333333</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="52">
@@ -6571,16 +6571,16 @@
         <v>1.70833333333333</v>
       </c>
       <c r="D52" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.00833333333333353</v>
       </c>
-      <c r="E52" t="n">
-        <v>1.71666666666667</v>
-      </c>
       <c r="F52" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.0166666666666671</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.725</v>
       </c>
     </row>
     <row r="53">
@@ -6594,16 +6594,16 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D53" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.2</v>
       </c>
-      <c r="E53" t="n">
-        <v>1.63333333333333</v>
-      </c>
       <c r="F53" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.233333333333333</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="54">
@@ -6617,16 +6617,16 @@
         <v>1.54166666666667</v>
       </c>
       <c r="D54" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E54" t="n">
-        <v>1.63333333333333</v>
-      </c>
       <c r="F54" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.0999999999999999</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1.64166666666667</v>
       </c>
     </row>
     <row r="55">
@@ -6640,16 +6640,16 @@
         <v>1.39166666666667</v>
       </c>
       <c r="D55" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.15</v>
       </c>
-      <c r="E55" t="n">
-        <v>1.54166666666667</v>
-      </c>
       <c r="F55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.55</v>
       </c>
     </row>
     <row r="56">
@@ -6663,16 +6663,16 @@
         <v>1.36666666666667</v>
       </c>
       <c r="D56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.133333333333334</v>
       </c>
-      <c r="E56" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F56" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -6686,16 +6686,16 @@
         <v>1.5</v>
       </c>
       <c r="D57" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E57" t="n">
-        <v>1.59166666666667</v>
-      </c>
       <c r="F57" t="n">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.0666666666666667</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="58">
@@ -6709,16 +6709,16 @@
         <v>1.40833333333333</v>
       </c>
       <c r="D58" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E58" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.0916666666666668</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="59">
@@ -6732,16 +6732,16 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D59" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.0916666666666666</v>
       </c>
-      <c r="E59" t="n">
-        <v>1.53333333333333</v>
-      </c>
       <c r="F59" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="60">
@@ -6755,16 +6755,16 @@
         <v>1.425</v>
       </c>
       <c r="D60" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E60" t="n">
-        <v>1.53333333333333</v>
-      </c>
       <c r="F60" t="n">
+        <v>1.55833333333333</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.133333333333333</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="61">
@@ -6778,16 +6778,16 @@
         <v>1.46666666666667</v>
       </c>
       <c r="D61" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.191666666666666</v>
       </c>
-      <c r="E61" t="n">
-        <v>1.65833333333333</v>
-      </c>
       <c r="F61" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.166666666666667</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="62">
@@ -6801,16 +6801,16 @@
         <v>1.45833333333333</v>
       </c>
       <c r="D62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E62" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F62" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.175</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -6824,16 +6824,16 @@
         <v>1.70833333333333</v>
       </c>
       <c r="D63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E63" t="n">
-        <v>1.75</v>
-      </c>
       <c r="F63" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.0583333333333336</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.76666666666667</v>
       </c>
     </row>
     <row r="64">
@@ -6847,16 +6847,16 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.158333333333333</v>
       </c>
-      <c r="E64" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F64" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.166666666666667</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="65">
@@ -6870,16 +6870,16 @@
         <v>1.575</v>
       </c>
       <c r="D65" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E65" t="n">
-        <v>1.71666666666667</v>
-      </c>
       <c r="F65" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.725</v>
       </c>
     </row>
     <row r="66">
@@ -6893,10 +6893,10 @@
         <v>1.425</v>
       </c>
       <c r="D66" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.0166666666666666</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.44166666666667</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
@@ -6912,16 +6912,16 @@
         <v>1.525</v>
       </c>
       <c r="D67" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.0916666666666663</v>
       </c>
-      <c r="E67" t="n">
-        <v>1.61666666666667</v>
-      </c>
       <c r="F67" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.0499999999999998</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1.575</v>
       </c>
     </row>
     <row r="68">
@@ -6935,16 +6935,16 @@
         <v>1.45833333333333</v>
       </c>
       <c r="D68" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.0333333333333332</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F68" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.075</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -6958,16 +6958,16 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D69" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.0916666666666666</v>
       </c>
-      <c r="E69" t="n">
-        <v>1.45</v>
-      </c>
       <c r="F69" t="n">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="70">
@@ -6981,16 +6981,16 @@
         <v>1.41666666666667</v>
       </c>
       <c r="D70" t="n">
+        <v>1.55833333333333</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.55833333333333</v>
-      </c>
       <c r="F70" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.175</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1.59166666666667</v>
       </c>
     </row>
     <row r="71">
@@ -7004,16 +7004,16 @@
         <v>1.46666666666667</v>
       </c>
       <c r="D71" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E71" t="n">
-        <v>1.575</v>
-      </c>
       <c r="F71" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1.59166666666667</v>
       </c>
     </row>
     <row r="72">
@@ -7027,16 +7027,16 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D72" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.0583333333333331</v>
       </c>
-      <c r="E72" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F72" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.0999999999999999</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="73">
@@ -7050,16 +7050,16 @@
         <v>1.60833333333333</v>
       </c>
       <c r="D73" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="E73" t="n">
         <v>-0.0250000000000001</v>
       </c>
-      <c r="E73" t="n">
-        <v>1.58333333333333</v>
-      </c>
       <c r="F73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G73" t="n">
         <v>-0.00833333333333353</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.6</v>
       </c>
     </row>
     <row r="74">
@@ -7073,16 +7073,16 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D74" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.133333333333333</v>
       </c>
-      <c r="E74" t="n">
-        <v>1.575</v>
-      </c>
       <c r="F74" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.141666666666667</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -7096,16 +7096,16 @@
         <v>1.575</v>
       </c>
       <c r="D75" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E75" t="n">
-        <v>1.66666666666667</v>
-      </c>
       <c r="F75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="76">
@@ -7119,10 +7119,10 @@
         <v>1.3</v>
       </c>
       <c r="D76" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.366666666666667</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.66666666666667</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
@@ -7138,16 +7138,16 @@
         <v>1.36666666666667</v>
       </c>
       <c r="D77" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="E77" t="n">
-        <v>1.53333333333333</v>
-      </c>
       <c r="F77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.183333333333334</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.55</v>
       </c>
     </row>
     <row r="78">
@@ -7161,16 +7161,16 @@
         <v>1.5</v>
       </c>
       <c r="D78" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E78" t="n">
         <v>-0.00833333333333353</v>
       </c>
-      <c r="E78" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F78" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.0416666666666667</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="79">
@@ -7184,16 +7184,16 @@
         <v>1.40833333333333</v>
       </c>
       <c r="D79" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.175</v>
       </c>
-      <c r="E79" t="n">
-        <v>1.58333333333333</v>
-      </c>
       <c r="F79" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.183333333333334</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.59166666666667</v>
       </c>
     </row>
     <row r="80">
@@ -7207,16 +7207,16 @@
         <v>1.5</v>
       </c>
       <c r="D80" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.216666666666667</v>
       </c>
-      <c r="E80" t="n">
-        <v>1.71666666666667</v>
-      </c>
       <c r="F80" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.541666666666667</v>
-      </c>
-      <c r="G80" t="n">
-        <v>2.04166666666667</v>
       </c>
     </row>
     <row r="81">
@@ -7230,16 +7230,16 @@
         <v>1.4</v>
       </c>
       <c r="D81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.0999999999999999</v>
       </c>
-      <c r="E81" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F81" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.116666666666666</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="82">
@@ -7253,16 +7253,16 @@
         <v>1.65</v>
       </c>
       <c r="D82" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="E82" t="n">
         <v>-0.0250000000000001</v>
       </c>
-      <c r="E82" t="n">
-        <v>1.625</v>
-      </c>
       <c r="F82" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.00833333333333308</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="83">
@@ -7276,10 +7276,10 @@
         <v>1.675</v>
       </c>
       <c r="D83" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.458333333333333</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2.13333333333333</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
@@ -7295,16 +7295,16 @@
         <v>1.525</v>
       </c>
       <c r="D84" t="n">
+        <v>1.91666666666667</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.391666666666667</v>
       </c>
-      <c r="E84" t="n">
-        <v>1.91666666666667</v>
-      </c>
       <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.475</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -7318,10 +7318,10 @@
         <v>1.5</v>
       </c>
       <c r="D85" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.60833333333333</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
@@ -7337,16 +7337,16 @@
         <v>1.28333333333333</v>
       </c>
       <c r="D86" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.15</v>
       </c>
-      <c r="E86" t="n">
-        <v>1.43333333333333</v>
-      </c>
       <c r="F86" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.44166666666667</v>
       </c>
     </row>
     <row r="87">
@@ -7360,16 +7360,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D87" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E87" t="n">
-        <v>1.61666666666667</v>
-      </c>
       <c r="F87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.141666666666667</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.65</v>
       </c>
     </row>
     <row r="88">
@@ -7383,16 +7383,16 @@
         <v>1.56666666666667</v>
       </c>
       <c r="D88" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E88" t="n">
-        <v>1.60833333333333</v>
-      </c>
       <c r="F88" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.0499999999999998</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -7406,16 +7406,16 @@
         <v>1.49166666666667</v>
       </c>
       <c r="D89" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.15</v>
       </c>
-      <c r="E89" t="n">
-        <v>1.64166666666667</v>
-      </c>
       <c r="F89" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.183333333333334</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.675</v>
       </c>
     </row>
     <row r="90">
@@ -7429,16 +7429,16 @@
         <v>1.65</v>
       </c>
       <c r="D90" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.0750000000000002</v>
       </c>
-      <c r="E90" t="n">
-        <v>1.725</v>
-      </c>
       <c r="F90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.0999999999999999</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="91">
@@ -7452,16 +7452,16 @@
         <v>1.34166666666667</v>
       </c>
       <c r="D91" t="n">
+        <v>1.38333333333333</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E91" t="n">
-        <v>1.38333333333333</v>
-      </c>
       <c r="F91" t="n">
+        <v>1.39166666666667</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.0499999999999998</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1.39166666666667</v>
       </c>
     </row>
     <row r="92">
@@ -7475,16 +7475,16 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D92" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E92" t="n">
-        <v>1.51666666666667</v>
-      </c>
       <c r="F92" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.0916666666666668</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1.525</v>
       </c>
     </row>
     <row r="93">
@@ -7498,16 +7498,16 @@
         <v>1.63333333333333</v>
       </c>
       <c r="D93" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.00833333333333308</v>
       </c>
-      <c r="E93" t="n">
-        <v>1.64166666666667</v>
-      </c>
       <c r="F93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.0166666666666666</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.65</v>
       </c>
     </row>
     <row r="94">
@@ -7521,16 +7521,16 @@
         <v>1.325</v>
       </c>
       <c r="D94" t="n">
+        <v>1.41666666666667</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E94" t="n">
-        <v>1.41666666666667</v>
-      </c>
       <c r="F94" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="95">
@@ -7544,16 +7544,16 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.158333333333333</v>
       </c>
-      <c r="E95" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F95" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.175</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.61666666666667</v>
       </c>
     </row>
     <row r="96">
@@ -7567,16 +7567,16 @@
         <v>1.33333333333333</v>
       </c>
       <c r="D96" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.1</v>
       </c>
-      <c r="E96" t="n">
-        <v>1.43333333333333</v>
-      </c>
       <c r="F96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.116666666666667</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.45</v>
       </c>
     </row>
     <row r="97">
@@ -7590,16 +7590,16 @@
         <v>1.275</v>
       </c>
       <c r="D97" t="n">
+        <v>1.34166666666667</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.0666666666666667</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>1.34166666666667</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>0.0666666666666667</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.34166666666667</v>
       </c>
     </row>
     <row r="98">
@@ -7613,16 +7613,16 @@
         <v>1.45833333333333</v>
       </c>
       <c r="D98" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.216666666666667</v>
       </c>
-      <c r="E98" t="n">
-        <v>1.675</v>
-      </c>
       <c r="F98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.241666666666667</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="99">
@@ -7636,16 +7636,16 @@
         <v>1.43333333333333</v>
       </c>
       <c r="D99" t="n">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.133333333333333</v>
       </c>
-      <c r="E99" t="n">
-        <v>1.56666666666667</v>
-      </c>
       <c r="F99" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="100">
@@ -7659,16 +7659,16 @@
         <v>1.49166666666667</v>
       </c>
       <c r="D100" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E100" t="n">
-        <v>1.63333333333333</v>
-      </c>
       <c r="F100" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.225</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.71666666666667</v>
       </c>
     </row>
     <row r="101">
@@ -7682,16 +7682,16 @@
         <v>1.66666666666667</v>
       </c>
       <c r="D101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E101" t="n">
         <v>-0.0166666666666666</v>
       </c>
-      <c r="E101" t="n">
-        <v>1.65</v>
-      </c>
       <c r="F101" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="G101" t="n">
         <v>-0.00833333333333353</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="102">
@@ -7705,16 +7705,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D102" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.158333333333333</v>
       </c>
-      <c r="E102" t="n">
-        <v>1.66666666666667</v>
-      </c>
       <c r="F102" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.70833333333333</v>
       </c>
     </row>
     <row r="103">
@@ -7728,16 +7728,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.0416666666666665</v>
       </c>
-      <c r="E103" t="n">
-        <v>1.55</v>
-      </c>
       <c r="F103" t="n">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.0583333333333331</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="104">
@@ -7751,16 +7751,16 @@
         <v>1.34166666666667</v>
       </c>
       <c r="D104" t="n">
+        <v>1.40833333333333</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.0666666666666664</v>
       </c>
-      <c r="E104" t="n">
-        <v>1.40833333333333</v>
-      </c>
       <c r="F104" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.0833333333333333</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.425</v>
       </c>
     </row>
     <row r="105">
@@ -7774,16 +7774,16 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D105" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.0999999999999999</v>
       </c>
-      <c r="E105" t="n">
-        <v>1.45833333333333</v>
-      </c>
       <c r="F105" t="n">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -7797,16 +7797,16 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D106" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.1</v>
       </c>
-      <c r="E106" t="n">
-        <v>1.54166666666667</v>
-      </c>
       <c r="F106" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.133333333333333</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.575</v>
       </c>
     </row>
     <row r="107">
@@ -7820,16 +7820,16 @@
         <v>1.40833333333333</v>
       </c>
       <c r="D107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E107" t="n">
-        <v>1.55</v>
-      </c>
       <c r="F107" t="n">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="108">
@@ -7843,16 +7843,16 @@
         <v>1.3</v>
       </c>
       <c r="D108" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.225</v>
       </c>
-      <c r="E108" t="n">
-        <v>1.525</v>
-      </c>
       <c r="F108" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.25</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1.55</v>
       </c>
     </row>
     <row r="109">
@@ -7866,16 +7866,16 @@
         <v>1.6</v>
       </c>
       <c r="D109" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E109" t="n">
         <v>-0.00833333333333308</v>
       </c>
-      <c r="E109" t="n">
-        <v>1.59166666666667</v>
-      </c>
       <c r="F109" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.0333333333333337</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="110">
@@ -7889,16 +7889,16 @@
         <v>1.53333333333333</v>
       </c>
       <c r="D110" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="E110" t="n">
         <v>0</v>
       </c>
-      <c r="E110" t="n">
-        <v>1.53333333333333</v>
-      </c>
       <c r="F110" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.00833333333333353</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="111">
@@ -7912,16 +7912,16 @@
         <v>1.54166666666667</v>
       </c>
       <c r="D111" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.191666666666667</v>
       </c>
-      <c r="E111" t="n">
-        <v>1.73333333333333</v>
-      </c>
       <c r="F111" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.66666666666667</v>
       </c>
     </row>
     <row r="112">
@@ -7935,16 +7935,16 @@
         <v>1.375</v>
       </c>
       <c r="D112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.075</v>
       </c>
-      <c r="E112" t="n">
-        <v>1.45</v>
-      </c>
       <c r="F112" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.0999999999999999</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.475</v>
       </c>
     </row>
     <row r="113">
@@ -7958,16 +7958,16 @@
         <v>1.39166666666667</v>
       </c>
       <c r="D113" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.2</v>
       </c>
-      <c r="E113" t="n">
-        <v>1.59166666666667</v>
-      </c>
       <c r="F113" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.216666666666667</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="114">
@@ -7981,16 +7981,16 @@
         <v>1.3</v>
       </c>
       <c r="D114" t="n">
+        <v>1.41666666666667</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.116666666666667</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>1.41666666666667</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.116666666666667</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.41666666666667</v>
       </c>
     </row>
     <row r="115">
@@ -8004,16 +8004,16 @@
         <v>1.34166666666667</v>
       </c>
       <c r="D115" t="n">
+        <v>1.41666666666667</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.075</v>
       </c>
-      <c r="E115" t="n">
-        <v>1.41666666666667</v>
-      </c>
       <c r="F115" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.0916666666666666</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="116">
@@ -8027,16 +8027,16 @@
         <v>1.35</v>
       </c>
       <c r="D116" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E116" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F116" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.175</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.525</v>
       </c>
     </row>
     <row r="117">
@@ -8050,16 +8050,16 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D117" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.0833333333333333</v>
       </c>
-      <c r="E117" t="n">
-        <v>1.44166666666667</v>
-      </c>
       <c r="F117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.0916666666666666</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1.45</v>
       </c>
     </row>
     <row r="118">
@@ -8073,16 +8073,16 @@
         <v>1.425</v>
       </c>
       <c r="D118" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.0916666666666666</v>
       </c>
-      <c r="E118" t="n">
-        <v>1.51666666666667</v>
-      </c>
       <c r="F118" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.525</v>
       </c>
     </row>
     <row r="119">
@@ -8096,16 +8096,16 @@
         <v>1.46666666666667</v>
       </c>
       <c r="D119" t="n">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.0999999999999999</v>
       </c>
-      <c r="E119" t="n">
-        <v>1.56666666666667</v>
-      </c>
       <c r="F119" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.0583333333333333</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1.525</v>
       </c>
     </row>
     <row r="120">
@@ -8119,16 +8119,16 @@
         <v>1.46666666666667</v>
       </c>
       <c r="D120" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.125</v>
       </c>
-      <c r="E120" t="n">
-        <v>1.59166666666667</v>
-      </c>
       <c r="F120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.133333333333333</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.6</v>
       </c>
     </row>
     <row r="121">
@@ -8142,16 +8142,16 @@
         <v>1.51666666666667</v>
       </c>
       <c r="D121" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.0250000000000001</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>1.54166666666667</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>0.0250000000000001</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="122">
@@ -8165,16 +8165,16 @@
         <v>1.40833333333333</v>
       </c>
       <c r="D122" t="n">
+        <v>1.55833333333333</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.15</v>
       </c>
-      <c r="E122" t="n">
-        <v>1.55833333333333</v>
-      </c>
       <c r="F122" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.175</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="123">
@@ -8188,16 +8188,16 @@
         <v>1.60833333333333</v>
       </c>
       <c r="D123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E123" t="n">
-        <v>1.75</v>
-      </c>
       <c r="F123" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.75833333333333</v>
       </c>
     </row>
     <row r="124">
@@ -8211,16 +8211,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D124" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="E124" t="n">
         <v>-0.0500000000000003</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>1.45833333333333</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>-0.0500000000000003</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="125">
@@ -8234,16 +8234,16 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E125" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F125" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="126">
@@ -8257,16 +8257,16 @@
         <v>1.36666666666667</v>
       </c>
       <c r="D126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.133333333333334</v>
       </c>
-      <c r="E126" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F126" t="n">
+        <v>1.50833333333333</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.141666666666667</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="127">
@@ -8280,10 +8280,10 @@
         <v>1.625</v>
       </c>
       <c r="D127" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.4</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2.025</v>
       </c>
       <c r="F127"/>
       <c r="G127"/>
@@ -8299,10 +8299,10 @@
         <v>1.6</v>
       </c>
       <c r="D128" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.0416666666666667</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.64166666666667</v>
       </c>
       <c r="F128"/>
       <c r="G128"/>
@@ -8318,16 +8318,16 @@
         <v>1.34166666666667</v>
       </c>
       <c r="D129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E129" t="n">
-        <v>1.45</v>
-      </c>
       <c r="F129" t="n">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="130">
@@ -8341,16 +8341,16 @@
         <v>1.55833333333333</v>
       </c>
       <c r="D130" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.0750000000000002</v>
       </c>
-      <c r="E130" t="n">
-        <v>1.63333333333333</v>
-      </c>
       <c r="F130" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.133333333333333</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1.69166666666667</v>
       </c>
     </row>
     <row r="131">
@@ -8364,16 +8364,16 @@
         <v>1.33333333333333</v>
       </c>
       <c r="D131" t="n">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.133333333333334</v>
       </c>
-      <c r="E131" t="n">
-        <v>1.46666666666667</v>
-      </c>
       <c r="F131" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="G131" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.49166666666667</v>
       </c>
     </row>
     <row r="132">
@@ -8387,16 +8387,16 @@
         <v>1.25833333333333</v>
       </c>
       <c r="D132" t="n">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.225</v>
       </c>
-      <c r="E132" t="n">
-        <v>1.48333333333333</v>
-      </c>
       <c r="F132" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="G132" t="n">
         <v>0.233333333333333</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1.49166666666667</v>
       </c>
     </row>
     <row r="133">
@@ -8410,16 +8410,16 @@
         <v>1.41666666666667</v>
       </c>
       <c r="D133" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="E133" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="E133" t="n">
-        <v>1.625</v>
-      </c>
       <c r="F133" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="G133" t="n">
         <v>0.241666666666666</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="134">
@@ -8433,16 +8433,16 @@
         <v>1.275</v>
       </c>
       <c r="D134" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E134" t="n">
         <v>0.0749999999999997</v>
       </c>
-      <c r="E134" t="n">
-        <v>1.35</v>
-      </c>
       <c r="F134" t="n">
+        <v>1.35833333333333</v>
+      </c>
+      <c r="G134" t="n">
         <v>0.0833333333333333</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1.35833333333333</v>
       </c>
     </row>
     <row r="135">
@@ -8456,16 +8456,16 @@
         <v>1.575</v>
       </c>
       <c r="D135" t="n">
+        <v>1.55833333333333</v>
+      </c>
+      <c r="E135" t="n">
         <v>-0.0166666666666666</v>
       </c>
-      <c r="E135" t="n">
-        <v>1.55833333333333</v>
-      </c>
       <c r="F135" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="G135" t="n">
         <v>0.0083333333333333</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1.58333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -8479,16 +8479,16 @@
         <v>1.48333333333333</v>
       </c>
       <c r="D136" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E136" t="n">
         <v>0.15</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>1.63333333333333</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="137">
@@ -8502,16 +8502,16 @@
         <v>1.58333333333333</v>
       </c>
       <c r="D137" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="E137" t="n">
         <v>0.125</v>
       </c>
-      <c r="E137" t="n">
-        <v>1.70833333333333</v>
-      </c>
       <c r="F137" t="n">
+        <v>1.74166666666667</v>
+      </c>
+      <c r="G137" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1.74166666666667</v>
       </c>
     </row>
     <row r="138">
@@ -8525,16 +8525,16 @@
         <v>1.325</v>
       </c>
       <c r="D138" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="E138" t="n">
         <v>0.116666666666667</v>
       </c>
-      <c r="E138" t="n">
-        <v>1.44166666666667</v>
-      </c>
       <c r="F138" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="G138" t="n">
         <v>0.133333333333333</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="139">
@@ -8548,16 +8548,16 @@
         <v>1.39166666666667</v>
       </c>
       <c r="D139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E139" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E139" t="n">
-        <v>1.5</v>
-      </c>
       <c r="F139" t="n">
+        <v>1.50833333333333</v>
+      </c>
+      <c r="G139" t="n">
         <v>0.116666666666667</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="140">
@@ -8571,10 +8571,10 @@
         <v>1.40833333333333</v>
       </c>
       <c r="D140" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="E140" t="n">
         <v>0.0666666666666667</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.475</v>
       </c>
       <c r="F140"/>
       <c r="G140"/>
@@ -8590,16 +8590,16 @@
         <v>1.45</v>
       </c>
       <c r="D141" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E141" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E141" t="n">
-        <v>1.54166666666667</v>
-      </c>
       <c r="F141" t="n">
+        <v>1.55833333333333</v>
+      </c>
+      <c r="G141" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1.55833333333333</v>
       </c>
     </row>
     <row r="142">
@@ -8613,10 +8613,10 @@
         <v>1.51666666666667</v>
       </c>
       <c r="D142" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E142" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.675</v>
       </c>
       <c r="F142"/>
       <c r="G142"/>
@@ -8632,16 +8632,16 @@
         <v>1.5</v>
       </c>
       <c r="D143" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E143" t="n">
         <v>0.075</v>
       </c>
-      <c r="E143" t="n">
-        <v>1.575</v>
-      </c>
       <c r="F143" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="G143" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="144">
@@ -8655,16 +8655,16 @@
         <v>1.45</v>
       </c>
       <c r="D144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E144" t="n">
         <v>0.1</v>
       </c>
-      <c r="E144" t="n">
-        <v>1.55</v>
-      </c>
       <c r="F144" t="n">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="G144" t="n">
         <v>0.116666666666667</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="145">
@@ -8678,16 +8678,16 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D145" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E145" t="n">
         <v>0.0499999999999998</v>
       </c>
-      <c r="E145" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F145" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="G145" t="n">
         <v>0.075</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="146">
@@ -8701,16 +8701,16 @@
         <v>1.65833333333333</v>
       </c>
       <c r="D146" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="E146" t="n">
         <v>-0.0416666666666667</v>
       </c>
-      <c r="E146" t="n">
-        <v>1.61666666666667</v>
-      </c>
       <c r="F146" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="G146" t="n">
         <v>0.0250000000000004</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="147">
@@ -8724,16 +8724,16 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D147" t="n">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="E147" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>1.46666666666667</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="148">
@@ -8747,10 +8747,10 @@
         <v>1.625</v>
       </c>
       <c r="D148" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="E148" t="n">
         <v>0.133333333333334</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.75833333333333</v>
       </c>
       <c r="F148"/>
       <c r="G148"/>
@@ -8766,16 +8766,16 @@
         <v>1.34166666666667</v>
       </c>
       <c r="D149" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="E149" t="n">
         <v>0.0999999999999999</v>
       </c>
-      <c r="E149" t="n">
-        <v>1.44166666666667</v>
-      </c>
       <c r="F149" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="G149" t="n">
         <v>0.116666666666666</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="150">
@@ -8789,16 +8789,16 @@
         <v>1.58333333333333</v>
       </c>
       <c r="D150" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="E150" t="n">
         <v>0.183333333333334</v>
       </c>
-      <c r="E150" t="n">
-        <v>1.76666666666667</v>
-      </c>
       <c r="F150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G150" t="n">
         <v>0.166666666666667</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="151">
@@ -8812,10 +8812,10 @@
         <v>1.5</v>
       </c>
       <c r="D151" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E151" t="n">
         <v>0.0416666666666667</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.54166666666667</v>
       </c>
       <c r="F151"/>
       <c r="G151"/>
@@ -8831,16 +8831,16 @@
         <v>1.26666666666667</v>
       </c>
       <c r="D152" t="n">
+        <v>1.39166666666667</v>
+      </c>
+      <c r="E152" t="n">
         <v>0.125</v>
       </c>
-      <c r="E152" t="n">
-        <v>1.39166666666667</v>
-      </c>
       <c r="F152" t="n">
+        <v>1.40833333333333</v>
+      </c>
+      <c r="G152" t="n">
         <v>0.141666666666667</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1.40833333333333</v>
       </c>
     </row>
     <row r="153">
@@ -8854,16 +8854,16 @@
         <v>1.40833333333333</v>
       </c>
       <c r="D153" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="E153" t="n">
         <v>0.183333333333334</v>
       </c>
-      <c r="E153" t="n">
-        <v>1.59166666666667</v>
-      </c>
       <c r="F153" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="G153" t="n">
         <v>0.225</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="154">
@@ -8877,16 +8877,16 @@
         <v>1.69166666666667</v>
       </c>
       <c r="D154" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="E154" t="n">
         <v>-0.05</v>
       </c>
-      <c r="E154" t="n">
-        <v>1.64166666666667</v>
-      </c>
       <c r="F154" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="G154" t="n">
         <v>-0.0333333333333334</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1.65833333333333</v>
       </c>
     </row>
     <row r="155">
@@ -8900,16 +8900,16 @@
         <v>1.45833333333333</v>
       </c>
       <c r="D155" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E155" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E155" t="n">
-        <v>1.55</v>
-      </c>
       <c r="F155" t="n">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="G155" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1.56666666666667</v>
       </c>
     </row>
     <row r="156">
@@ -8923,16 +8923,16 @@
         <v>1.325</v>
       </c>
       <c r="D156" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="E156" t="n">
         <v>0.05</v>
       </c>
-      <c r="E156" t="n">
-        <v>1.375</v>
-      </c>
       <c r="F156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G156" t="n">
         <v>0.0249999999999999</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="157">
@@ -8946,16 +8946,16 @@
         <v>1.30833333333333</v>
       </c>
       <c r="D157" t="n">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="E157" t="n">
         <v>0.175</v>
       </c>
-      <c r="E157" t="n">
-        <v>1.48333333333333</v>
-      </c>
       <c r="F157" t="n">
+        <v>1.50833333333333</v>
+      </c>
+      <c r="G157" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="158">
@@ -8969,16 +8969,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D158" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E158" t="n">
         <v>0.0666666666666664</v>
       </c>
-      <c r="E158" t="n">
-        <v>1.575</v>
-      </c>
       <c r="F158" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="G158" t="n">
         <v>0.0833333333333333</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1.59166666666667</v>
       </c>
     </row>
     <row r="159">
@@ -8992,16 +8992,16 @@
         <v>1.38333333333333</v>
       </c>
       <c r="D159" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="E159" t="n">
         <v>0.0416666666666665</v>
       </c>
-      <c r="E159" t="n">
-        <v>1.425</v>
-      </c>
       <c r="F159" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="G159" t="n">
         <v>0.0583333333333331</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1.44166666666667</v>
       </c>
     </row>
     <row r="160">
@@ -9015,16 +9015,16 @@
         <v>1.63333333333333</v>
       </c>
       <c r="D160" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="E160" t="n">
         <v>0.0416666666666665</v>
       </c>
-      <c r="E160" t="n">
-        <v>1.675</v>
-      </c>
       <c r="F160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G160" t="n">
         <v>0.0666666666666664</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="161">
@@ -9038,16 +9038,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D161" t="n">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="E161" t="n">
         <v>0.0749999999999997</v>
       </c>
-      <c r="E161" t="n">
-        <v>1.58333333333333</v>
-      </c>
       <c r="F161" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G161" t="n">
         <v>0.116666666666666</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1.625</v>
       </c>
     </row>
     <row r="162">
@@ -9061,16 +9061,16 @@
         <v>1.48333333333333</v>
       </c>
       <c r="D162" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E162" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="E162" t="n">
-        <v>1.65</v>
-      </c>
       <c r="F162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G162" t="n">
         <v>0.216666666666667</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="163">
@@ -9084,16 +9084,16 @@
         <v>1.25833333333333</v>
       </c>
       <c r="D163" t="n">
+        <v>1.40833333333333</v>
+      </c>
+      <c r="E163" t="n">
         <v>0.15</v>
       </c>
-      <c r="E163" t="n">
-        <v>1.40833333333333</v>
-      </c>
       <c r="F163" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="G163" t="n">
         <v>0.166666666666667</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1.425</v>
       </c>
     </row>
     <row r="164">
@@ -9107,16 +9107,16 @@
         <v>1.425</v>
       </c>
       <c r="D164" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="E164" t="n">
         <v>0.0083333333333333</v>
       </c>
-      <c r="E164" t="n">
-        <v>1.43333333333333</v>
-      </c>
       <c r="F164" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="G164" t="n">
         <v>0.0333333333333332</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1.45833333333333</v>
       </c>
     </row>
     <row r="165">
@@ -9130,16 +9130,16 @@
         <v>1.35833333333333</v>
       </c>
       <c r="D165" t="n">
+        <v>1.46666666666667</v>
+      </c>
+      <c r="E165" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>1.46666666666667</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1.46666666666667</v>
       </c>
     </row>
     <row r="166">
@@ -9153,16 +9153,16 @@
         <v>1.36666666666667</v>
       </c>
       <c r="D166" t="n">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="E166" t="n">
         <v>0.116666666666667</v>
       </c>
-      <c r="E166" t="n">
-        <v>1.48333333333333</v>
-      </c>
       <c r="F166" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="G166" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1.49166666666667</v>
       </c>
     </row>
     <row r="167">
@@ -9176,16 +9176,16 @@
         <v>1.28333333333333</v>
       </c>
       <c r="D167" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="E167" t="n">
         <v>0.175</v>
       </c>
-      <c r="E167" t="n">
-        <v>1.45833333333333</v>
-      </c>
       <c r="F167" t="n">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="G167" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="168">
@@ -9199,16 +9199,16 @@
         <v>1.425</v>
       </c>
       <c r="D168" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="E168" t="n">
         <v>0.0333333333333332</v>
       </c>
-      <c r="E168" t="n">
-        <v>1.45833333333333</v>
-      </c>
       <c r="F168" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="G168" t="n">
         <v>0.0499999999999998</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1.475</v>
       </c>
     </row>
     <row r="169">
@@ -9222,16 +9222,16 @@
         <v>1.38333333333333</v>
       </c>
       <c r="D169" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="E169" t="n">
         <v>0.141666666666667</v>
       </c>
-      <c r="E169" t="n">
-        <v>1.525</v>
-      </c>
       <c r="F169" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="G169" t="n">
         <v>0.158333333333333</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="170">
@@ -9245,16 +9245,16 @@
         <v>1.325</v>
       </c>
       <c r="D170" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="E170" t="n">
         <v>0.108333333333333</v>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>1.43333333333333</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="171">
@@ -9268,16 +9268,16 @@
         <v>1.51666666666667</v>
       </c>
       <c r="D171" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E171" t="n">
         <v>0.0250000000000001</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>1.54166666666667</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.0250000000000001</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1.54166666666667</v>
       </c>
     </row>
     <row r="172">
@@ -9291,16 +9291,16 @@
         <v>1.25833333333333</v>
       </c>
       <c r="D172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E172" t="n">
         <v>0.0916666666666666</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>1.35</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.0916666666666666</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1.35</v>
       </c>
     </row>
     <row r="173">
@@ -9314,16 +9314,16 @@
         <v>1.41666666666667</v>
       </c>
       <c r="D173" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="E173" t="n">
         <v>0.0999999999999999</v>
       </c>
-      <c r="E173" t="n">
-        <v>1.51666666666667</v>
-      </c>
       <c r="F173" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="G173" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1.525</v>
       </c>
     </row>
     <row r="174">
@@ -9337,16 +9337,16 @@
         <v>1.46666666666667</v>
       </c>
       <c r="D174" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="E174" t="n">
         <v>0.0499999999999998</v>
       </c>
-      <c r="E174" t="n">
-        <v>1.51666666666667</v>
-      </c>
       <c r="F174" t="n">
+        <v>1.53333333333333</v>
+      </c>
+      <c r="G174" t="n">
         <v>0.0666666666666664</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1.53333333333333</v>
       </c>
     </row>
     <row r="175">
@@ -9360,16 +9360,16 @@
         <v>1.65</v>
       </c>
       <c r="D175" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="E175" t="n">
         <v>-0.0250000000000001</v>
       </c>
-      <c r="E175" t="n">
-        <v>1.625</v>
-      </c>
       <c r="F175" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="G175" t="n">
         <v>-0.00833333333333353</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1.64166666666667</v>
       </c>
     </row>
     <row r="176">
@@ -9383,16 +9383,16 @@
         <v>1.65833333333333</v>
       </c>
       <c r="D176" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="E176" t="n">
         <v>0.0583333333333336</v>
       </c>
-      <c r="E176" t="n">
-        <v>1.71666666666667</v>
-      </c>
       <c r="F176" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="G176" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1.75833333333333</v>
       </c>
     </row>
     <row r="177">
@@ -9406,10 +9406,10 @@
         <v>1.53333333333333</v>
       </c>
       <c r="D177" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E177" t="n">
         <v>0.116666666666667</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.65</v>
       </c>
       <c r="F177"/>
       <c r="G177"/>
@@ -9425,10 +9425,10 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D178" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="E178" t="n">
         <v>0.175</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.68333333333333</v>
       </c>
       <c r="F178"/>
       <c r="G178"/>
@@ -9444,10 +9444,10 @@
         <v>1.56666666666667</v>
       </c>
       <c r="D179" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="E179" t="n">
         <v>0.125</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.69166666666667</v>
       </c>
       <c r="F179"/>
       <c r="G179"/>
@@ -9463,16 +9463,16 @@
         <v>1.60833333333333</v>
       </c>
       <c r="D180" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E180" t="n">
         <v>-0.0333333333333334</v>
       </c>
-      <c r="E180" t="n">
-        <v>1.575</v>
-      </c>
       <c r="F180" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="G180" t="n">
         <v>-0.0166666666666666</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1.59166666666667</v>
       </c>
     </row>
     <row r="181">
@@ -9486,16 +9486,16 @@
         <v>1.49166666666667</v>
       </c>
       <c r="D181" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="E181" t="n">
         <v>0.0833333333333335</v>
       </c>
-      <c r="E181" t="n">
-        <v>1.575</v>
-      </c>
       <c r="F181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G181" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1.6</v>
       </c>
     </row>
     <row r="182">
@@ -9509,16 +9509,16 @@
         <v>1.36666666666667</v>
       </c>
       <c r="D182" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="E182" t="n">
         <v>0.0666666666666669</v>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>1.43333333333333</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>0.0666666666666669</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="183">
@@ -9532,16 +9532,16 @@
         <v>1.34166666666667</v>
       </c>
       <c r="D183" t="n">
+        <v>1.44166666666667</v>
+      </c>
+      <c r="E183" t="n">
         <v>0.0999999999999999</v>
       </c>
-      <c r="E183" t="n">
-        <v>1.44166666666667</v>
-      </c>
       <c r="F183" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G183" t="n">
         <v>0.108333333333333</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1.45</v>
       </c>
     </row>
     <row r="184">
@@ -9555,16 +9555,16 @@
         <v>1.525</v>
       </c>
       <c r="D184" t="n">
+        <v>1.50833333333333</v>
+      </c>
+      <c r="E184" t="n">
         <v>-0.0166666666666666</v>
       </c>
-      <c r="E184" t="n">
-        <v>1.50833333333333</v>
-      </c>
       <c r="F184" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="G184" t="n">
         <v>-0.00833333333333353</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1.51666666666667</v>
       </c>
     </row>
     <row r="185">
@@ -9578,16 +9578,16 @@
         <v>1.59166666666667</v>
       </c>
       <c r="D185" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E185" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E185" t="n">
-        <v>1.63333333333333</v>
-      </c>
       <c r="F185" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="G185" t="n">
         <v>0.0916666666666668</v>
-      </c>
-      <c r="G185" t="n">
-        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="186">
@@ -9601,16 +9601,16 @@
         <v>1.48333333333333</v>
       </c>
       <c r="D186" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="E186" t="n">
         <v>0.2</v>
       </c>
-      <c r="E186" t="n">
-        <v>1.68333333333333</v>
-      </c>
       <c r="F186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G186" t="n">
         <v>0.216666666666667</v>
-      </c>
-      <c r="G186" t="n">
-        <v>1.7</v>
       </c>
     </row>
     <row r="187">
@@ -9624,16 +9624,16 @@
         <v>1.375</v>
       </c>
       <c r="D187" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E187" t="n">
         <v>0.116666666666666</v>
       </c>
-      <c r="E187" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F187" t="n">
+        <v>1.50833333333333</v>
+      </c>
+      <c r="G187" t="n">
         <v>0.133333333333334</v>
-      </c>
-      <c r="G187" t="n">
-        <v>1.50833333333333</v>
       </c>
     </row>
     <row r="188">
@@ -9647,16 +9647,16 @@
         <v>1.39166666666667</v>
       </c>
       <c r="D188" t="n">
+        <v>1.54166666666667</v>
+      </c>
+      <c r="E188" t="n">
         <v>0.15</v>
       </c>
-      <c r="E188" t="n">
-        <v>1.54166666666667</v>
-      </c>
       <c r="F188" t="n">
+        <v>1.59166666666667</v>
+      </c>
+      <c r="G188" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1.59166666666667</v>
       </c>
     </row>
     <row r="189">
@@ -9670,16 +9670,16 @@
         <v>1.53333333333333</v>
       </c>
       <c r="D189" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="E189" t="n">
         <v>0.0750000000000002</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>1.60833333333333</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.0750000000000002</v>
-      </c>
-      <c r="G189" t="n">
-        <v>1.60833333333333</v>
       </c>
     </row>
     <row r="190">
@@ -9693,16 +9693,16 @@
         <v>1.44166666666667</v>
       </c>
       <c r="D190" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E190" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="E190" t="n">
-        <v>1.65</v>
-      </c>
       <c r="F190" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="G190" t="n">
         <v>0.191666666666667</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1.63333333333333</v>
       </c>
     </row>
     <row r="191">
@@ -9716,16 +9716,16 @@
         <v>1.59166666666667</v>
       </c>
       <c r="D191" t="n">
+        <v>1.74166666666667</v>
+      </c>
+      <c r="E191" t="n">
         <v>0.15</v>
       </c>
-      <c r="E191" t="n">
-        <v>1.74166666666667</v>
-      </c>
       <c r="F191" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="G191" t="n">
         <v>0.216666666666667</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1.80833333333333</v>
       </c>
     </row>
     <row r="192">
@@ -9739,16 +9739,16 @@
         <v>1.36666666666667</v>
       </c>
       <c r="D192" t="n">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="E192" t="n">
         <v>0.0916666666666668</v>
       </c>
-      <c r="E192" t="n">
-        <v>1.45833333333333</v>
-      </c>
       <c r="F192" t="n">
+        <v>1.48333333333333</v>
+      </c>
+      <c r="G192" t="n">
         <v>0.116666666666667</v>
-      </c>
-      <c r="G192" t="n">
-        <v>1.48333333333333</v>
       </c>
     </row>
     <row r="193">
@@ -9762,16 +9762,16 @@
         <v>1.41666666666667</v>
       </c>
       <c r="D193" t="n">
+        <v>1.49166666666667</v>
+      </c>
+      <c r="E193" t="n">
         <v>0.0749999999999997</v>
       </c>
-      <c r="E193" t="n">
-        <v>1.49166666666667</v>
-      </c>
       <c r="F193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G193" t="n">
         <v>0.0833333333333333</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="194">
@@ -9785,10 +9785,10 @@
         <v>1.325</v>
       </c>
       <c r="D194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E194" t="n">
         <v>0.175</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.5</v>
       </c>
       <c r="F194"/>
       <c r="G194"/>
@@ -9804,16 +9804,16 @@
         <v>1.65</v>
       </c>
       <c r="D195" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E195" t="n">
         <v>0.225</v>
       </c>
-      <c r="E195" t="n">
-        <v>1.875</v>
-      </c>
       <c r="F195" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="G195" t="n">
         <v>0.258333333333333</v>
-      </c>
-      <c r="G195" t="n">
-        <v>1.90833333333333</v>
       </c>
     </row>
     <row r="196">
@@ -9827,16 +9827,16 @@
         <v>1.35</v>
       </c>
       <c r="D196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E196" t="n">
         <v>0.15</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>1.5</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.15</v>
-      </c>
-      <c r="G196" t="n">
-        <v>1.5</v>
       </c>
     </row>
     <row r="197">
@@ -9850,16 +9850,16 @@
         <v>1.45</v>
       </c>
       <c r="D197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E197" t="n">
         <v>0.25</v>
       </c>
-      <c r="E197" t="n">
-        <v>1.7</v>
-      </c>
       <c r="F197" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="G197" t="n">
         <v>0.358333333333334</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1.80833333333333</v>
       </c>
     </row>
     <row r="198">
@@ -9873,16 +9873,16 @@
         <v>1.50833333333333</v>
       </c>
       <c r="D198" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="E198" t="n">
         <v>0.125</v>
       </c>
-      <c r="E198" t="n">
-        <v>1.63333333333333</v>
-      </c>
       <c r="F198" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G198" t="n">
         <v>0.141666666666667</v>
-      </c>
-      <c r="G198" t="n">
-        <v>1.65</v>
       </c>
     </row>
     <row r="199">
@@ -9896,16 +9896,16 @@
         <v>1.45</v>
       </c>
       <c r="D199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E199" t="n">
         <v>0.15</v>
       </c>
-      <c r="E199" t="n">
-        <v>1.6</v>
-      </c>
       <c r="F199" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G199" t="n">
         <v>0.175</v>
-      </c>
-      <c r="G199" t="n">
-        <v>1.625</v>
       </c>
     </row>
     <row r="200">
@@ -9919,16 +9919,16 @@
         <v>1.30833333333333</v>
       </c>
       <c r="D200" t="n">
+        <v>1.43333333333333</v>
+      </c>
+      <c r="E200" t="n">
         <v>0.125</v>
       </c>
-      <c r="E200" t="n">
-        <v>1.43333333333333</v>
-      </c>
       <c r="F200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G200" t="n">
         <v>0.141666666666667</v>
-      </c>
-      <c r="G200" t="n">
-        <v>1.45</v>
       </c>
     </row>
     <row r="201">
@@ -9942,10 +9942,10 @@
         <v>1.475</v>
       </c>
       <c r="D201" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="E201" t="n">
         <v>0.208333333333334</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1.68333333333333</v>
       </c>
       <c r="F201"/>
       <c r="G201"/>
@@ -9961,16 +9961,16 @@
         <v>1.49166666666667</v>
       </c>
       <c r="D202" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="E202" t="n">
         <v>0.116666666666667</v>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>1.60833333333333</v>
       </c>
-      <c r="F202" t="n">
+      <c r="G202" t="n">
         <v>0.116666666666667</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1.60833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/fig2.xlsx
+++ b/outcome/fig2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="420">
   <si>
     <t xml:space="preserve">location_name</t>
   </si>
@@ -30,21 +30,21 @@
     <t xml:space="preserve">Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
     <t xml:space="preserve">Africa</t>
   </si>
   <si>
+    <t xml:space="preserve">Eastern Mediterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Americas</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Mediterranean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global</t>
-  </si>
-  <si>
     <t xml:space="preserve">South-East Asia</t>
   </si>
   <si>
@@ -69,10 +69,1210 @@
     <t xml:space="preserve">Diff2</t>
   </si>
   <si>
+    <t xml:space="preserve">ASM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Republic of Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentine Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivarian Republic of Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei Darussalam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commonwealth of Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commonwealth of the Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Socialist Republic of Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Republic of Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Democratic Republic of Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Democratic Republic of Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Republic of Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Republic of Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Republic of Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federative Republic of Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabonese Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Duchy of Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hashemite Kingdom of Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellenic Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent State of Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent State of Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Republic of Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Republic of Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Republic of Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Republic of Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanese Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People's Democratic Republic of Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People's Republic of Bangladesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHN</t>
   </si>
   <si>
     <t xml:space="preserve">People's Republic of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plurinational State of Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principality of Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Cabo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Republic of the Union of Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socialist Republic of Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sultanate of Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Confederation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan (Province of China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togolese Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union of the Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Mexican States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Virgin Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America</t>
   </si>
 </sst>
 </file>
@@ -429,13 +1629,13 @@
         <v>1990</v>
       </c>
       <c r="C2" t="n">
-        <v>1.66666666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D2" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E2" t="n">
-        <v>3.45</v>
+        <v>3.79166666666667</v>
       </c>
     </row>
     <row r="3">
@@ -446,13 +1646,13 @@
         <v>1991</v>
       </c>
       <c r="C3" t="n">
-        <v>1.66666666666667</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E3" t="n">
-        <v>3.45</v>
+        <v>3.80833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -463,13 +1663,13 @@
         <v>1992</v>
       </c>
       <c r="C4" t="n">
-        <v>1.66666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E4" t="n">
-        <v>3.45</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="5">
@@ -480,13 +1680,13 @@
         <v>1993</v>
       </c>
       <c r="C5" t="n">
-        <v>1.66666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E5" t="n">
-        <v>3.45</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -497,13 +1697,13 @@
         <v>1994</v>
       </c>
       <c r="C6" t="n">
-        <v>1.66666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E6" t="n">
-        <v>3.45</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="7">
@@ -514,13 +1714,13 @@
         <v>1995</v>
       </c>
       <c r="C7" t="n">
-        <v>1.66666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E7" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -531,13 +1731,13 @@
         <v>1996</v>
       </c>
       <c r="C8" t="n">
-        <v>1.66666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E8" t="n">
-        <v>3.45</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="9">
@@ -548,13 +1748,13 @@
         <v>1997</v>
       </c>
       <c r="C9" t="n">
-        <v>1.66666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E9" t="n">
-        <v>3.45</v>
+        <v>3.83333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -565,13 +1765,13 @@
         <v>1998</v>
       </c>
       <c r="C10" t="n">
-        <v>1.66666666666667</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E10" t="n">
-        <v>3.45</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +1782,13 @@
         <v>1999</v>
       </c>
       <c r="C11" t="n">
-        <v>1.675</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E11" t="n">
-        <v>3.45833333333333</v>
+        <v>3.81666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +1799,13 @@
         <v>2000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.675</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.716666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E12" t="n">
-        <v>3.45833333333333</v>
+        <v>3.81666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -616,13 +1816,13 @@
         <v>2001</v>
       </c>
       <c r="C13" t="n">
-        <v>1.675</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.716666666666667</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>3.45833333333333</v>
+        <v>3.81666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -633,13 +1833,13 @@
         <v>2002</v>
       </c>
       <c r="C14" t="n">
-        <v>1.675</v>
+        <v>1.825</v>
       </c>
       <c r="D14" t="n">
-        <v>0.725</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>3.46666666666667</v>
+        <v>3.81666666666667</v>
       </c>
     </row>
     <row r="15">
@@ -650,13 +1850,13 @@
         <v>2003</v>
       </c>
       <c r="C15" t="n">
-        <v>1.68333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D15" t="n">
-        <v>0.725</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>3.46666666666667</v>
+        <v>3.80833333333333</v>
       </c>
     </row>
     <row r="16">
@@ -667,13 +1867,13 @@
         <v>2004</v>
       </c>
       <c r="C16" t="n">
-        <v>1.68333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.725</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>3.46666666666667</v>
+        <v>3.80833333333333</v>
       </c>
     </row>
     <row r="17">
@@ -684,13 +1884,13 @@
         <v>2005</v>
       </c>
       <c r="C17" t="n">
-        <v>1.68333333333333</v>
+        <v>1.825</v>
       </c>
       <c r="D17" t="n">
-        <v>0.725</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>3.475</v>
+        <v>3.80833333333333</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +1901,13 @@
         <v>2006</v>
       </c>
       <c r="C18" t="n">
-        <v>1.69166666666667</v>
+        <v>1.825</v>
       </c>
       <c r="D18" t="n">
-        <v>0.725</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>3.48333333333333</v>
+        <v>3.80833333333333</v>
       </c>
     </row>
     <row r="19">
@@ -718,13 +1918,13 @@
         <v>2007</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.733333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="E19" t="n">
-        <v>3.49166666666667</v>
+        <v>3.81666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -735,13 +1935,13 @@
         <v>2008</v>
       </c>
       <c r="C20" t="n">
-        <v>1.70833333333333</v>
+        <v>1.83333333333333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.733333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="E20" t="n">
-        <v>3.50833333333333</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="21">
@@ -752,13 +1952,13 @@
         <v>2009</v>
       </c>
       <c r="C21" t="n">
-        <v>1.71666666666667</v>
+        <v>1.84166666666667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.733333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="E21" t="n">
-        <v>3.51666666666667</v>
+        <v>3.83333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -769,13 +1969,13 @@
         <v>2010</v>
       </c>
       <c r="C22" t="n">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="D22" t="n">
-        <v>0.741666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="E22" t="n">
-        <v>3.53333333333333</v>
+        <v>3.84166666666667</v>
       </c>
     </row>
     <row r="23">
@@ -786,13 +1986,13 @@
         <v>2011</v>
       </c>
       <c r="C23" t="n">
-        <v>1.73333333333333</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>0.741666666666667</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>3.55</v>
+        <v>3.85833333333333</v>
       </c>
     </row>
     <row r="24">
@@ -803,13 +2003,13 @@
         <v>2012</v>
       </c>
       <c r="C24" t="n">
-        <v>1.74166666666667</v>
+        <v>1.85833333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.741666666666667</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>3.56666666666667</v>
+        <v>3.86666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -820,13 +2020,13 @@
         <v>2013</v>
       </c>
       <c r="C25" t="n">
-        <v>1.75</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="D25" t="n">
-        <v>0.75</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>3.59166666666667</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="26">
@@ -837,13 +2037,13 @@
         <v>2014</v>
       </c>
       <c r="C26" t="n">
-        <v>1.75833333333333</v>
+        <v>1.86666666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>0.75</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E26" t="n">
-        <v>3.60833333333333</v>
+        <v>3.88333333333333</v>
       </c>
     </row>
     <row r="27">
@@ -854,13 +2054,13 @@
         <v>2015</v>
       </c>
       <c r="C27" t="n">
-        <v>1.76666666666667</v>
+        <v>1.875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.75</v>
+        <v>0.783333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>3.625</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="28">
@@ -871,13 +2071,13 @@
         <v>2016</v>
       </c>
       <c r="C28" t="n">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.758333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>3.65</v>
+        <v>3.90833333333333</v>
       </c>
     </row>
     <row r="29">
@@ -888,13 +2088,13 @@
         <v>2017</v>
       </c>
       <c r="C29" t="n">
-        <v>1.78333333333333</v>
+        <v>1.88333333333333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.758333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E29" t="n">
-        <v>3.66666666666667</v>
+        <v>3.925</v>
       </c>
     </row>
     <row r="30">
@@ -905,13 +2105,13 @@
         <v>2018</v>
       </c>
       <c r="C30" t="n">
-        <v>1.79166666666667</v>
+        <v>1.89166666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>0.758333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>3.68333333333333</v>
+        <v>3.94166666666667</v>
       </c>
     </row>
     <row r="31">
@@ -922,13 +2122,13 @@
         <v>2019</v>
       </c>
       <c r="C31" t="n">
-        <v>1.8</v>
+        <v>1.90833333333333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.766666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E31" t="n">
-        <v>3.7</v>
+        <v>3.96666666666667</v>
       </c>
     </row>
     <row r="32">
@@ -939,13 +2139,13 @@
         <v>2020</v>
       </c>
       <c r="C32" t="n">
-        <v>1.8</v>
+        <v>1.90833333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.766666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E32" t="n">
-        <v>3.70833333333333</v>
+        <v>3.98333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -956,13 +2156,13 @@
         <v>2021</v>
       </c>
       <c r="C33" t="n">
-        <v>1.80833333333333</v>
+        <v>1.9</v>
       </c>
       <c r="D33" t="n">
-        <v>0.766666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>3.725</v>
+        <v>3.94166666666667</v>
       </c>
     </row>
     <row r="34">
@@ -973,13 +2173,13 @@
         <v>1990</v>
       </c>
       <c r="C34" t="n">
-        <v>1.89166666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.791666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>3.925</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +2190,13 @@
         <v>1991</v>
       </c>
       <c r="C35" t="n">
-        <v>1.89166666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D35" t="n">
-        <v>0.791666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>3.94166666666667</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="36">
@@ -1007,13 +2207,13 @@
         <v>1992</v>
       </c>
       <c r="C36" t="n">
-        <v>1.9</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.791666666666667</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="37">
@@ -1024,13 +2224,13 @@
         <v>1993</v>
       </c>
       <c r="C37" t="n">
-        <v>1.9</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E37" t="n">
-        <v>3.96666666666667</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="38">
@@ -1041,13 +2241,13 @@
         <v>1994</v>
       </c>
       <c r="C38" t="n">
-        <v>1.90833333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>3.975</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="39">
@@ -1058,13 +2258,13 @@
         <v>1995</v>
       </c>
       <c r="C39" t="n">
-        <v>1.90833333333333</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E39" t="n">
-        <v>3.98333333333333</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="40">
@@ -1075,13 +2275,13 @@
         <v>1996</v>
       </c>
       <c r="C40" t="n">
-        <v>1.91666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E40" t="n">
-        <v>3.99166666666667</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="41">
@@ -1092,13 +2292,13 @@
         <v>1997</v>
       </c>
       <c r="C41" t="n">
-        <v>1.91666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="42">
@@ -1109,13 +2309,13 @@
         <v>1998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.91666666666667</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="43">
@@ -1126,13 +2326,13 @@
         <v>1999</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>5.01666666666667</v>
+        <v>3.45833333333333</v>
       </c>
     </row>
     <row r="44">
@@ -1143,13 +2343,13 @@
         <v>2000</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="D44" t="n">
-        <v>0.808333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>5.03333333333333</v>
+        <v>3.45833333333333</v>
       </c>
     </row>
     <row r="45">
@@ -1160,13 +2360,13 @@
         <v>2001</v>
       </c>
       <c r="C45" t="n">
-        <v>2.00833333333333</v>
+        <v>1.675</v>
       </c>
       <c r="D45" t="n">
-        <v>0.808333333333333</v>
+        <v>0.716666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>5.05</v>
+        <v>3.45833333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1177,13 +2377,13 @@
         <v>2002</v>
       </c>
       <c r="C46" t="n">
-        <v>2.00833333333333</v>
+        <v>1.675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.808333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E46" t="n">
-        <v>5.06666666666667</v>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="47">
@@ -1194,13 +2394,13 @@
         <v>2003</v>
       </c>
       <c r="C47" t="n">
-        <v>2.00833333333333</v>
+        <v>1.68333333333333</v>
       </c>
       <c r="D47" t="n">
-        <v>0.808333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E47" t="n">
-        <v>5.075</v>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="48">
@@ -1211,13 +2411,13 @@
         <v>2004</v>
       </c>
       <c r="C48" t="n">
-        <v>2.00833333333333</v>
+        <v>1.68333333333333</v>
       </c>
       <c r="D48" t="n">
-        <v>0.808333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E48" t="n">
-        <v>5.075</v>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -1228,13 +2428,13 @@
         <v>2005</v>
       </c>
       <c r="C49" t="n">
-        <v>2.00833333333333</v>
+        <v>1.68333333333333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.808333333333333</v>
+        <v>0.725</v>
       </c>
       <c r="E49" t="n">
-        <v>5.075</v>
+        <v>3.475</v>
       </c>
     </row>
     <row r="50">
@@ -1245,13 +2445,13 @@
         <v>2006</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1.69166666666667</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8</v>
+        <v>0.725</v>
       </c>
       <c r="E50" t="n">
-        <v>5.075</v>
+        <v>3.48333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1262,13 +2462,13 @@
         <v>2007</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E51" t="n">
-        <v>5.06666666666667</v>
+        <v>3.49166666666667</v>
       </c>
     </row>
     <row r="52">
@@ -1279,13 +2479,13 @@
         <v>2008</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1.70833333333333</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E52" t="n">
-        <v>5.06666666666667</v>
+        <v>3.50833333333333</v>
       </c>
     </row>
     <row r="53">
@@ -1296,13 +2496,13 @@
         <v>2009</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1.71666666666667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="E53" t="n">
-        <v>5.06666666666667</v>
+        <v>3.51666666666667</v>
       </c>
     </row>
     <row r="54">
@@ -1313,13 +2513,13 @@
         <v>2010</v>
       </c>
       <c r="C54" t="n">
-        <v>2.00833333333333</v>
+        <v>1.725</v>
       </c>
       <c r="D54" t="n">
-        <v>0.808333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E54" t="n">
-        <v>5.08333333333333</v>
+        <v>3.53333333333333</v>
       </c>
     </row>
     <row r="55">
@@ -1330,13 +2530,13 @@
         <v>2011</v>
       </c>
       <c r="C55" t="n">
-        <v>2.00833333333333</v>
+        <v>1.73333333333333</v>
       </c>
       <c r="D55" t="n">
-        <v>0.808333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E55" t="n">
-        <v>5.08333333333333</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="56">
@@ -1347,13 +2547,13 @@
         <v>2012</v>
       </c>
       <c r="C56" t="n">
-        <v>2.00833333333333</v>
+        <v>1.74166666666667</v>
       </c>
       <c r="D56" t="n">
-        <v>0.808333333333333</v>
+        <v>0.741666666666667</v>
       </c>
       <c r="E56" t="n">
-        <v>5.09166666666667</v>
+        <v>3.56666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -1364,13 +2564,13 @@
         <v>2013</v>
       </c>
       <c r="C57" t="n">
-        <v>2.00833333333333</v>
+        <v>1.75</v>
       </c>
       <c r="D57" t="n">
-        <v>0.808333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E57" t="n">
-        <v>5.09166666666667</v>
+        <v>3.59166666666667</v>
       </c>
     </row>
     <row r="58">
@@ -1381,13 +2581,13 @@
         <v>2014</v>
       </c>
       <c r="C58" t="n">
-        <v>2.00833333333333</v>
+        <v>1.75833333333333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.808333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E58" t="n">
-        <v>5.09166666666667</v>
+        <v>3.60833333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1398,13 +2598,13 @@
         <v>2015</v>
       </c>
       <c r="C59" t="n">
-        <v>2.01666666666667</v>
+        <v>1.76666666666667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.808333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E59" t="n">
-        <v>5.1</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="60">
@@ -1415,13 +2615,13 @@
         <v>2016</v>
       </c>
       <c r="C60" t="n">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="D60" t="n">
-        <v>0.808333333333333</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E60" t="n">
-        <v>5.11666666666667</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="61">
@@ -1432,13 +2632,13 @@
         <v>2017</v>
       </c>
       <c r="C61" t="n">
-        <v>2.03333333333333</v>
+        <v>1.78333333333333</v>
       </c>
       <c r="D61" t="n">
-        <v>0.816666666666667</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E61" t="n">
-        <v>5.14166666666667</v>
+        <v>3.66666666666667</v>
       </c>
     </row>
     <row r="62">
@@ -1449,13 +2649,13 @@
         <v>2018</v>
       </c>
       <c r="C62" t="n">
-        <v>2.05</v>
+        <v>1.79166666666667</v>
       </c>
       <c r="D62" t="n">
-        <v>0.816666666666667</v>
+        <v>0.758333333333333</v>
       </c>
       <c r="E62" t="n">
-        <v>5.175</v>
+        <v>3.68333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -1466,13 +2666,13 @@
         <v>2019</v>
       </c>
       <c r="C63" t="n">
-        <v>2.06666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="D63" t="n">
-        <v>0.825</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E63" t="n">
-        <v>5.225</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="64">
@@ -1483,13 +2683,13 @@
         <v>2020</v>
       </c>
       <c r="C64" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="D64" t="n">
-        <v>0.841666666666667</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>5.33333333333333</v>
+        <v>3.70833333333333</v>
       </c>
     </row>
     <row r="65">
@@ -1500,13 +2700,13 @@
         <v>2021</v>
       </c>
       <c r="C65" t="n">
-        <v>2.075</v>
+        <v>1.80833333333333</v>
       </c>
       <c r="D65" t="n">
-        <v>0.825</v>
+        <v>0.766666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>5.25</v>
+        <v>3.725</v>
       </c>
     </row>
     <row r="66">
@@ -2605,13 +3805,13 @@
         <v>1990</v>
       </c>
       <c r="C130" t="n">
-        <v>1.825</v>
+        <v>1.89166666666667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.775</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E130" t="n">
-        <v>3.79166666666667</v>
+        <v>3.925</v>
       </c>
     </row>
     <row r="131">
@@ -2622,13 +3822,13 @@
         <v>1991</v>
       </c>
       <c r="C131" t="n">
-        <v>1.83333333333333</v>
+        <v>1.89166666666667</v>
       </c>
       <c r="D131" t="n">
-        <v>0.775</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E131" t="n">
-        <v>3.80833333333333</v>
+        <v>3.94166666666667</v>
       </c>
     </row>
     <row r="132">
@@ -2639,13 +3839,13 @@
         <v>1992</v>
       </c>
       <c r="C132" t="n">
-        <v>1.84166666666667</v>
+        <v>1.9</v>
       </c>
       <c r="D132" t="n">
-        <v>0.775</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E132" t="n">
-        <v>3.825</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="133">
@@ -2656,13 +3856,13 @@
         <v>1993</v>
       </c>
       <c r="C133" t="n">
-        <v>1.84166666666667</v>
+        <v>1.9</v>
       </c>
       <c r="D133" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E133" t="n">
-        <v>3.84166666666667</v>
+        <v>3.96666666666667</v>
       </c>
     </row>
     <row r="134">
@@ -2673,13 +3873,13 @@
         <v>1994</v>
       </c>
       <c r="C134" t="n">
-        <v>1.84166666666667</v>
+        <v>1.90833333333333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E134" t="n">
-        <v>3.84166666666667</v>
+        <v>3.975</v>
       </c>
     </row>
     <row r="135">
@@ -2690,13 +3890,13 @@
         <v>1995</v>
       </c>
       <c r="C135" t="n">
-        <v>1.84166666666667</v>
+        <v>1.90833333333333</v>
       </c>
       <c r="D135" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E135" t="n">
-        <v>3.85</v>
+        <v>3.98333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -2707,13 +3907,13 @@
         <v>1996</v>
       </c>
       <c r="C136" t="n">
-        <v>1.84166666666667</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D136" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E136" t="n">
-        <v>3.84166666666667</v>
+        <v>3.99166666666667</v>
       </c>
     </row>
     <row r="137">
@@ -2724,13 +3924,13 @@
         <v>1997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.84166666666667</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D137" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E137" t="n">
-        <v>3.83333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -2741,13 +3941,13 @@
         <v>1998</v>
       </c>
       <c r="C138" t="n">
-        <v>1.83333333333333</v>
+        <v>1.91666666666667</v>
       </c>
       <c r="D138" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E138" t="n">
-        <v>3.825</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139">
@@ -2758,13 +3958,13 @@
         <v>1999</v>
       </c>
       <c r="C139" t="n">
-        <v>1.83333333333333</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E139" t="n">
-        <v>3.81666666666667</v>
+        <v>5.01666666666667</v>
       </c>
     </row>
     <row r="140">
@@ -2775,13 +3975,13 @@
         <v>2000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83333333333333</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>0.775</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E140" t="n">
-        <v>3.81666666666667</v>
+        <v>5.03333333333333</v>
       </c>
     </row>
     <row r="141">
@@ -2792,13 +3992,13 @@
         <v>2001</v>
       </c>
       <c r="C141" t="n">
-        <v>1.83333333333333</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D141" t="n">
-        <v>0.766666666666667</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E141" t="n">
-        <v>3.81666666666667</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="142">
@@ -2809,13 +4009,13 @@
         <v>2002</v>
       </c>
       <c r="C142" t="n">
-        <v>1.825</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D142" t="n">
-        <v>0.766666666666667</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E142" t="n">
-        <v>3.81666666666667</v>
+        <v>5.06666666666667</v>
       </c>
     </row>
     <row r="143">
@@ -2826,13 +4026,13 @@
         <v>2003</v>
       </c>
       <c r="C143" t="n">
-        <v>1.825</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D143" t="n">
-        <v>0.766666666666667</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E143" t="n">
-        <v>3.80833333333333</v>
+        <v>5.075</v>
       </c>
     </row>
     <row r="144">
@@ -2843,13 +4043,13 @@
         <v>2004</v>
       </c>
       <c r="C144" t="n">
-        <v>1.825</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D144" t="n">
-        <v>0.766666666666667</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E144" t="n">
-        <v>3.80833333333333</v>
+        <v>5.075</v>
       </c>
     </row>
     <row r="145">
@@ -2860,13 +4060,13 @@
         <v>2005</v>
       </c>
       <c r="C145" t="n">
-        <v>1.825</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D145" t="n">
-        <v>0.766666666666667</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E145" t="n">
-        <v>3.80833333333333</v>
+        <v>5.075</v>
       </c>
     </row>
     <row r="146">
@@ -2877,13 +4077,13 @@
         <v>2006</v>
       </c>
       <c r="C146" t="n">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>0.766666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E146" t="n">
-        <v>3.80833333333333</v>
+        <v>5.075</v>
       </c>
     </row>
     <row r="147">
@@ -2894,13 +4094,13 @@
         <v>2007</v>
       </c>
       <c r="C147" t="n">
-        <v>1.83333333333333</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E147" t="n">
-        <v>3.81666666666667</v>
+        <v>5.06666666666667</v>
       </c>
     </row>
     <row r="148">
@@ -2911,13 +4111,13 @@
         <v>2008</v>
       </c>
       <c r="C148" t="n">
-        <v>1.83333333333333</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E148" t="n">
-        <v>3.825</v>
+        <v>5.06666666666667</v>
       </c>
     </row>
     <row r="149">
@@ -2928,13 +4128,13 @@
         <v>2009</v>
       </c>
       <c r="C149" t="n">
-        <v>1.84166666666667</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="E149" t="n">
-        <v>3.83333333333333</v>
+        <v>5.06666666666667</v>
       </c>
     </row>
     <row r="150">
@@ -2945,13 +4145,13 @@
         <v>2010</v>
       </c>
       <c r="C150" t="n">
-        <v>1.85</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D150" t="n">
-        <v>0.775</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E150" t="n">
-        <v>3.84166666666667</v>
+        <v>5.08333333333333</v>
       </c>
     </row>
     <row r="151">
@@ -2962,13 +4162,13 @@
         <v>2011</v>
       </c>
       <c r="C151" t="n">
-        <v>1.85833333333333</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D151" t="n">
-        <v>0.783333333333333</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E151" t="n">
-        <v>3.85833333333333</v>
+        <v>5.08333333333333</v>
       </c>
     </row>
     <row r="152">
@@ -2979,13 +4179,13 @@
         <v>2012</v>
       </c>
       <c r="C152" t="n">
-        <v>1.85833333333333</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>0.783333333333333</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E152" t="n">
-        <v>3.86666666666667</v>
+        <v>5.09166666666667</v>
       </c>
     </row>
     <row r="153">
@@ -2996,13 +4196,13 @@
         <v>2013</v>
       </c>
       <c r="C153" t="n">
-        <v>1.86666666666667</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D153" t="n">
-        <v>0.783333333333333</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E153" t="n">
-        <v>3.875</v>
+        <v>5.09166666666667</v>
       </c>
     </row>
     <row r="154">
@@ -3013,13 +4213,13 @@
         <v>2014</v>
       </c>
       <c r="C154" t="n">
-        <v>1.86666666666667</v>
+        <v>2.00833333333333</v>
       </c>
       <c r="D154" t="n">
-        <v>0.783333333333333</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E154" t="n">
-        <v>3.88333333333333</v>
+        <v>5.09166666666667</v>
       </c>
     </row>
     <row r="155">
@@ -3030,13 +4230,13 @@
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>1.875</v>
+        <v>2.01666666666667</v>
       </c>
       <c r="D155" t="n">
-        <v>0.783333333333333</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E155" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="156">
@@ -3047,13 +4247,13 @@
         <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="D156" t="n">
-        <v>0.791666666666667</v>
+        <v>0.808333333333333</v>
       </c>
       <c r="E156" t="n">
-        <v>3.90833333333333</v>
+        <v>5.11666666666667</v>
       </c>
     </row>
     <row r="157">
@@ -3064,13 +4264,13 @@
         <v>2017</v>
       </c>
       <c r="C157" t="n">
-        <v>1.88333333333333</v>
+        <v>2.03333333333333</v>
       </c>
       <c r="D157" t="n">
-        <v>0.791666666666667</v>
+        <v>0.816666666666667</v>
       </c>
       <c r="E157" t="n">
-        <v>3.925</v>
+        <v>5.14166666666667</v>
       </c>
     </row>
     <row r="158">
@@ -3081,13 +4281,13 @@
         <v>2018</v>
       </c>
       <c r="C158" t="n">
-        <v>1.89166666666667</v>
+        <v>2.05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.791666666666667</v>
+        <v>0.816666666666667</v>
       </c>
       <c r="E158" t="n">
-        <v>3.94166666666667</v>
+        <v>5.175</v>
       </c>
     </row>
     <row r="159">
@@ -3098,13 +4298,13 @@
         <v>2019</v>
       </c>
       <c r="C159" t="n">
-        <v>1.90833333333333</v>
+        <v>2.06666666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="E159" t="n">
-        <v>3.96666666666667</v>
+        <v>5.225</v>
       </c>
     </row>
     <row r="160">
@@ -3115,13 +4315,13 @@
         <v>2020</v>
       </c>
       <c r="C160" t="n">
-        <v>1.90833333333333</v>
+        <v>2.1</v>
       </c>
       <c r="D160" t="n">
-        <v>0.8</v>
+        <v>0.841666666666667</v>
       </c>
       <c r="E160" t="n">
-        <v>3.98333333333333</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="161">
@@ -3132,13 +4332,13 @@
         <v>2021</v>
       </c>
       <c r="C161" t="n">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="D161" t="n">
-        <v>0.791666666666667</v>
+        <v>0.825</v>
       </c>
       <c r="E161" t="n">
-        <v>3.94166666666667</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="162">
@@ -4274,19 +5474,4503 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.641666666666667</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0833333333333335</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.90833333333333</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G4" t="n">
+        <v>0.141666666666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.05833333333333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0666666666666669</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.28333333333333</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.258333333333333</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.208333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.28333333333333</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.158333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0249999999999997</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0333333333333332</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.158333333333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.20833333333333</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.133333333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.43333333333333</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.38333333333333</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.341666666666667</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.0583333333333331</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.433333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.241666666666666</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.05833333333333</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.266666666666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.183333333333333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.05833333333333</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0833333333333335</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.241666666666667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.30833333333333</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.133333333333334</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.133333333333334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.283333333333333</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0333333333333332</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0666666666666664</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.158333333333334</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0333333333333332</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0416666666666665</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.191666666666667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.0916666666666668</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.0583333333333336</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.18333333333333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.083333333333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0916666666666668</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0583333333333331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.158333333333333</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.141666666666667</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.108333333333333</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.0166666666666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.74166666666667</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.0166666666666671</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0083333333333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.20833333333333</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.00833333333333375</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.116666666666667</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0333333333333332</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.28333333333333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.183333333333333</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.141666666666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0916666666666663</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.116666666666667</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.91666666666667</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.308333333333333</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0333333333333332</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.358333333333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.408333333333333</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.18333333333333</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.116666666666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.05833333333333</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.291666666666666</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.216666666666667</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.258333333333333</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.308333333333333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.30833333333333</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.041666666666667</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.38333333333333</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.31666666666667</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.216666666666667</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0166666666666666</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0583333333333336</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.191666666666667</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.116666666666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.258333333333333</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0666666666666664</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.0166666666666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.08333333333333</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.141666666666667</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.28333333333333</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.308333333333333</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.0166666666666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.316666666666667</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.341666666666667</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="D80" t="n">
         <v>2.24166666666667</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E80" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F80" t="n">
         <v>2.54166666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G80" t="n">
         <v>0.633333333333333</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.23333333333333</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.0416666666666665</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.26666666666667</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.725</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.566666666666667</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.616666666666667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.258333333333333</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.191666666666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.241666666666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0416666666666665</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0583333333333331</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.18333333333333</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.308333333333333</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.23333333333333</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.358333333333333</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2.34166666666667</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0583333333333333</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0666666666666669</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0249999999999995</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0416666666666665</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.308333333333333</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.158333333333333</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.366666666666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.26666666666667</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.416666666666666</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.08333333333333</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.391666666666666</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.316666666666667</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.29166666666667</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.383333333333333</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0583333333333331</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.158333333333333</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.08333333333333</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.283333333333333</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.64166666666667</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.408333333333334</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0249999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.0750000000000002</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0.0083333333333333</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0166666666666666</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.258333333333333</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.191666666666666</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0999999999999999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.366666666666666</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.78333333333333</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0916666666666668</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.108333333333334</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.183333333333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0999999999999996</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.116666666666666</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.216666666666667</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.216666666666667</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.158333333333333</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.258333333333333</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.041666666666667</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.041666666666667</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.05833333333333</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.316666666666667</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.35833333333333</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.38333333333333</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.208333333333333</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.0499999999999998</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.0416666666666667</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.91666666666667</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.191666666666666</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.18333333333333</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.60833333333333</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F127"/>
+      <c r="G127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0749999999999997</v>
+      </c>
+      <c r="F128"/>
+      <c r="G128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.05833333333333</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.191666666666667</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.383333333333333</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.441666666666667</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.61666666666667</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0916666666666668</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>284</v>
+      </c>
+      <c r="B135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.08333333333333</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.0083333333333333</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>288</v>
+      </c>
+      <c r="B137" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.29166666666667</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.216666666666667</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.34166666666667</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.141666666666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.158333333333333</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>292</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.91666666666667</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.158333333333333</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>294</v>
+      </c>
+      <c r="B140" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.78333333333333</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F140"/>
+      <c r="G140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.216666666666667</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.241666666666667</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>298</v>
+      </c>
+      <c r="B142" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F142"/>
+      <c r="G142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.233333333333333</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>302</v>
+      </c>
+      <c r="B144" t="s">
+        <v>303</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.05833333333333</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.241666666666666</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>304</v>
+      </c>
+      <c r="B145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0666666666666669</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.0499999999999998</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2.23333333333333</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0333333333333337</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>308</v>
+      </c>
+      <c r="B147" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.141666666666667</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>310</v>
+      </c>
+      <c r="B148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.38333333333333</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.183333333333334</v>
+      </c>
+      <c r="F148"/>
+      <c r="G148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>312</v>
+      </c>
+      <c r="B149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.69166666666667</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>314</v>
+      </c>
+      <c r="B150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.38333333333333</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.36666666666667</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.258333333333333</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="F151"/>
+      <c r="G151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.158333333333333</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.78333333333333</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>320</v>
+      </c>
+      <c r="B153" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>322</v>
+      </c>
+      <c r="B154" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.0583333333333331</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-0.0333333333333332</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>324</v>
+      </c>
+      <c r="B155" t="s">
+        <v>325</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.08333333333333</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.241666666666667</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156" t="s">
+        <v>327</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.76666666666667</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.0333333333333332</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>328</v>
+      </c>
+      <c r="B157" t="s">
+        <v>329</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.241666666666666</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" t="s">
+        <v>331</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.116666666666667</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>332</v>
+      </c>
+      <c r="B159" t="s">
+        <v>333</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.0916666666666666</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>334</v>
+      </c>
+      <c r="B160" t="s">
+        <v>335</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.23333333333333</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0916666666666668</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>336</v>
+      </c>
+      <c r="B161" t="s">
+        <v>337</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.09166666666667</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.183333333333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.241666666666667</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>338</v>
+      </c>
+      <c r="B162" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.18333333333333</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.291666666666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.366666666666666</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>340</v>
+      </c>
+      <c r="B163" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.78333333333333</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" t="s">
+        <v>343</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0166666666666668</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>344</v>
+      </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.71666666666667</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.133333333333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.85833333333333</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.141666666666667</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.89166666666667</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.241666666666666</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>350</v>
+      </c>
+      <c r="B168" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0500000000000003</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.0666666666666664</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.258333333333333</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.283333333333333</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>354</v>
+      </c>
+      <c r="B170" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.133333333333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.141666666666667</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>356</v>
+      </c>
+      <c r="B171" t="s">
+        <v>357</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0416666666666665</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.04166666666667</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0416666666666665</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>358</v>
+      </c>
+      <c r="B172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.60833333333333</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0999999999999999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0999999999999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>360</v>
+      </c>
+      <c r="B173" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.79166666666667</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2.00833333333333</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.216666666666667</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.233333333333333</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>362</v>
+      </c>
+      <c r="B174" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.141666666666667</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>364</v>
+      </c>
+      <c r="B175" t="s">
+        <v>365</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.0166666666666666</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>366</v>
+      </c>
+      <c r="B176" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.18333333333333</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.0916666666666668</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>368</v>
+      </c>
+      <c r="B177" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2.21666666666667</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.191666666666667</v>
+      </c>
+      <c r="F177"/>
+      <c r="G177"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>370</v>
+      </c>
+      <c r="B178" t="s">
+        <v>371</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F178"/>
+      <c r="G178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>372</v>
+      </c>
+      <c r="B179" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.24166666666667</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F179"/>
+      <c r="G179"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>374</v>
+      </c>
+      <c r="B180" t="s">
+        <v>375</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.0333333333333332</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-0.0083333333333333</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" t="s">
+        <v>377</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.191666666666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.233333333333333</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>378</v>
+      </c>
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.81666666666667</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.0916666666666663</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" t="s">
+        <v>381</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.133333333333334</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>382</v>
+      </c>
+      <c r="B184" t="s">
+        <v>383</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-0.108333333333333</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-0.0166666666666666</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>384</v>
+      </c>
+      <c r="B185" t="s">
+        <v>385</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.18333333333333</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.116666666666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.191666666666666</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>386</v>
+      </c>
+      <c r="B186" t="s">
+        <v>387</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.86666666666667</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.25833333333333</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.391666666666667</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2.29166666666667</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>388</v>
+      </c>
+      <c r="B187" t="s">
+        <v>389</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.74166666666667</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.91666666666667</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2.01666666666667</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>390</v>
+      </c>
+      <c r="B188" t="s">
+        <v>391</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.75833333333333</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.10833333333333</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>392</v>
+      </c>
+      <c r="B189" t="s">
+        <v>393</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.0916666666666663</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0999999999999996</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>394</v>
+      </c>
+      <c r="B190" t="s">
+        <v>395</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.825</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.366666666666667</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>396</v>
+      </c>
+      <c r="B191" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.14166666666667</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.43333333333333</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192" t="s">
+        <v>399</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.73333333333333</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.141666666666667</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>400</v>
+      </c>
+      <c r="B193" t="s">
+        <v>401</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.78333333333333</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.88333333333333</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>402</v>
+      </c>
+      <c r="B194" t="s">
+        <v>403</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.65833333333333</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F194"/>
+      <c r="G194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>404</v>
+      </c>
+      <c r="B195" t="s">
+        <v>405</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.51666666666667</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.341666666666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>406</v>
+      </c>
+      <c r="B196" t="s">
+        <v>407</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.70833333333333</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.90833333333333</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.91666666666667</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.208333333333333</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>408</v>
+      </c>
+      <c r="B197" t="s">
+        <v>409</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.441666666666667</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.44166666666667</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.608333333333334</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>410</v>
+      </c>
+      <c r="B198" t="s">
+        <v>411</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2.16666666666667</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>412</v>
+      </c>
+      <c r="B199" t="s">
+        <v>413</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.84166666666667</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.11666666666667</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.316666666666666</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>414</v>
+      </c>
+      <c r="B200" t="s">
+        <v>415</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.66666666666667</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.80833333333333</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.141666666666667</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.83333333333333</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>416</v>
+      </c>
+      <c r="B201" t="s">
+        <v>417</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F201"/>
+      <c r="G201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>418</v>
+      </c>
+      <c r="B202" t="s">
+        <v>419</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2.15833333333333</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.258333333333333</v>
       </c>
     </row>
   </sheetData>
